--- a/src/main/java/com/coding/training/algorithmic/leetcode.xlsx
+++ b/src/main/java/com/coding/training/algorithmic/leetcode.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GITHUB\practice\src\main\java\com\coding\training\algorithmic\题目\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GITHUB\practice\src\main\java\com\coding\training\algorithmic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FCBD14-6549-462F-BEEE-2B57BE795433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A92986-737E-4FD4-A93F-E778E9BCA599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5415" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5415" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单" sheetId="2" r:id="rId1"/>
     <sheet name="中等" sheetId="1" r:id="rId2"/>
     <sheet name="困难" sheetId="3" r:id="rId3"/>
+    <sheet name="剑指Offer" sheetId="4" r:id="rId4"/>
+    <sheet name="程序员面试宝典" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1751">
   <si>
     <t>面试题 17.08</t>
   </si>
@@ -5630,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E4F350-6971-4316-8220-5154FF0CF203}">
   <dimension ref="A1:I470"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14625,7 +14627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E794"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -29736,7 +29738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24FEEB6-9C1F-4A7F-81BC-B7C628192355}">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -35550,4 +35552,3571 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090EEFA-039A-4546-83D4-90823CAA7E61}">
+  <dimension ref="A1:J76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C2" s="1">
+        <v>310</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C3" s="1">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C4" s="1">
+        <v>243</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C5" s="1">
+        <v>218</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B6" t="s">
+        <v>798</v>
+      </c>
+      <c r="C6" s="1">
+        <v>156</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C7" s="1">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C8" s="1">
+        <v>162</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>962</v>
+      </c>
+      <c r="B9" t="s">
+        <v>963</v>
+      </c>
+      <c r="C9" s="1">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="1">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="1">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" s="1">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C15" s="1">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.318</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C17" s="1">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C18" s="1">
+        <v>148</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C19" s="1">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C21" s="1">
+        <v>146</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C22" s="1">
+        <v>196</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C23" s="1">
+        <v>157</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C24" s="1">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="1">
+        <v>104</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C26" s="1">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C27" s="1">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>973</v>
+      </c>
+      <c r="B28" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" s="1">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C29" s="1">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>619</v>
+      </c>
+      <c r="B30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C30" s="1">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>768</v>
+      </c>
+      <c r="B31" t="s">
+        <v>769</v>
+      </c>
+      <c r="C31" s="1">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C32" s="1">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>667</v>
+      </c>
+      <c r="B33" t="s">
+        <v>668</v>
+      </c>
+      <c r="C33" s="1">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" s="1">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>579</v>
+      </c>
+      <c r="B35" t="s">
+        <v>580</v>
+      </c>
+      <c r="C35" s="1">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>836</v>
+      </c>
+      <c r="B36" t="s">
+        <v>837</v>
+      </c>
+      <c r="C36" s="1">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>654</v>
+      </c>
+      <c r="B37" t="s">
+        <v>655</v>
+      </c>
+      <c r="C37" s="1">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>545</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1">
+        <v>69</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C40" s="1">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C41" s="1">
+        <v>130</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C43" s="1">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C44" s="1">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>608</v>
+      </c>
+      <c r="B46" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="1">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="1">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>795</v>
+      </c>
+      <c r="B48" t="s">
+        <v>796</v>
+      </c>
+      <c r="C48" s="1">
+        <v>85</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="1">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>731</v>
+      </c>
+      <c r="B50" t="s">
+        <v>732</v>
+      </c>
+      <c r="C50" s="1">
+        <v>41</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C51" s="1">
+        <v>94</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C52" s="1">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C53" s="1">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C54" s="1">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>987</v>
+      </c>
+      <c r="B55" t="s">
+        <v>988</v>
+      </c>
+      <c r="C55" s="1">
+        <v>105</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C56" s="1">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C57" s="1">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C58" s="1">
+        <v>87</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>793</v>
+      </c>
+      <c r="B59" t="s">
+        <v>794</v>
+      </c>
+      <c r="C59" s="1">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>864</v>
+      </c>
+      <c r="B60" t="s">
+        <v>865</v>
+      </c>
+      <c r="C60" s="1">
+        <v>65</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C61" s="1">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C62" s="1">
+        <v>940</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>951</v>
+      </c>
+      <c r="B63" t="s">
+        <v>952</v>
+      </c>
+      <c r="C63" s="1">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C64" s="1">
+        <v>168</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>982</v>
+      </c>
+      <c r="B65" t="s">
+        <v>983</v>
+      </c>
+      <c r="C65" s="1">
+        <v>126</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>467</v>
+      </c>
+      <c r="B66" t="s">
+        <v>468</v>
+      </c>
+      <c r="C66" s="1">
+        <v>563</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C67" s="1">
+        <v>51</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>957</v>
+      </c>
+      <c r="B68" t="s">
+        <v>958</v>
+      </c>
+      <c r="C68" s="1">
+        <v>75</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>751</v>
+      </c>
+      <c r="B70" t="s">
+        <v>752</v>
+      </c>
+      <c r="C70" s="1">
+        <v>67</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>880</v>
+      </c>
+      <c r="B71" t="s">
+        <v>881</v>
+      </c>
+      <c r="C71" s="1">
+        <v>120</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C72" s="1">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C73" s="1">
+        <v>48</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1">
+        <v>51</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C75" s="1">
+        <v>64</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B76" t="s">
+        <v>671</v>
+      </c>
+      <c r="C76" s="1">
+        <v>54</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E77">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof" xr:uid="{C874509C-E304-4355-A7AD-C1664C160A4A}"/>
+    <hyperlink ref="C28" r:id="rId2" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/solution" xr:uid="{01D8AEE8-BB1B-43B3-A0E5-5E2C202D2E6D}"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://leetcode-cn.com/problems/qing-wa-tiao-tai-jie-wen-ti-lcof" xr:uid="{1BBBC4AB-344A-4626-BA21-FDDF53E3F500}"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://leetcode-cn.com/problems/qing-wa-tiao-tai-jie-wen-ti-lcof/solution" xr:uid="{33E2AFF8-0A98-4A74-BF4C-93580596D5C0}"/>
+    <hyperlink ref="B66" r:id="rId5" display="https://leetcode-cn.com/problems/dui-lie-de-zui-da-zhi-lcof" xr:uid="{ED2BA31D-DB57-41C0-9094-29CFB039D3E9}"/>
+    <hyperlink ref="C66" r:id="rId6" display="https://leetcode-cn.com/problems/dui-lie-de-zui-da-zhi-lcof/solution" xr:uid="{9DCA9937-3B63-431F-A47C-38EA34B3B826}"/>
+    <hyperlink ref="B22" r:id="rId7" display="https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof" xr:uid="{F94D2A83-D128-40C0-9714-EA01C3739D75}"/>
+    <hyperlink ref="C22" r:id="rId8" display="https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof/solution" xr:uid="{A29962F8-2B12-46E4-9921-4DF88E84A98C}"/>
+    <hyperlink ref="B6" r:id="rId9" display="https://leetcode-cn.com/problems/zhong-jian-er-cha-shu-lcof" xr:uid="{BE7175AA-1ADB-4DBF-ACB1-DA071E856FFC}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://leetcode-cn.com/problems/zhong-jian-er-cha-shu-lcof/solution" xr:uid="{DF9BF0C0-4023-4869-8BF4-8DD1396DD89C}"/>
+    <hyperlink ref="B43" r:id="rId11" display="https://leetcode-cn.com/problems/lian-xu-zi-shu-zu-de-zui-da-he-lcof" xr:uid="{C7FB7A15-A614-4BB8-A07B-420E5F04CA65}"/>
+    <hyperlink ref="C43" r:id="rId12" display="https://leetcode-cn.com/problems/lian-xu-zi-shu-zu-de-zui-da-he-lcof/solution" xr:uid="{39FE2C56-3921-4FCA-B27D-A689F1863AA8}"/>
+    <hyperlink ref="B21" r:id="rId13" display="https://leetcode-cn.com/problems/diao-zheng-shu-zu-shun-xu-shi-qi-shu-wei-yu-ou-shu-qian-mian-lcof" xr:uid="{32426868-439B-436C-B3B4-1E4A57C9482B}"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://leetcode-cn.com/problems/diao-zheng-shu-zu-shun-xu-shi-qi-shu-wei-yu-ou-shu-qian-mian-lcof/solution" xr:uid="{F701CE18-43BC-4611-9D3D-E39CA29251C9}"/>
+    <hyperlink ref="B20" r:id="rId15" display="https://leetcode-cn.com/problems/biao-shi-shu-zhi-de-zi-fu-chuan-lcof" xr:uid="{9EB66A62-9927-47C0-A3C7-107A91C0813F}"/>
+    <hyperlink ref="C20" r:id="rId16" display="https://leetcode-cn.com/problems/biao-shi-shu-zhi-de-zi-fu-chuan-lcof/solution" xr:uid="{0DB117A5-52D0-4591-B995-F64BB35B09C8}"/>
+    <hyperlink ref="B70" r:id="rId17" display="https://leetcode-cn.com/problems/gu-piao-de-zui-da-li-run-lcof" xr:uid="{C93E78FA-D41D-4517-A740-D890EF4E0E31}"/>
+    <hyperlink ref="C70" r:id="rId18" display="https://leetcode-cn.com/problems/gu-piao-de-zui-da-li-run-lcof/solution" xr:uid="{060AFE32-2BE9-4453-B6AB-74DC9354F2E5}"/>
+    <hyperlink ref="B63" r:id="rId19" display="https://leetcode-cn.com/problems/fan-zhuan-dan-ci-shun-xu-lcof" xr:uid="{6DD744A7-1299-47A1-AFC8-8365E9020FF4}"/>
+    <hyperlink ref="C63" r:id="rId20" display="https://leetcode-cn.com/problems/fan-zhuan-dan-ci-shun-xu-lcof/solution" xr:uid="{B6FA4963-457B-4692-B5C2-BD79BE6C616B}"/>
+    <hyperlink ref="B55" r:id="rId21" display="https://leetcode-cn.com/problems/que-shi-de-shu-zi-lcof" xr:uid="{C7F3FE04-B3AE-4B33-9FFB-69B7191CC2AE}"/>
+    <hyperlink ref="C55" r:id="rId22" display="https://leetcode-cn.com/problems/que-shi-de-shu-zi-lcof/solution" xr:uid="{58D6E094-B24B-449B-A3D4-73CAEB29A2A0}"/>
+    <hyperlink ref="B51" r:id="rId23" display="https://leetcode-cn.com/problems/di-yi-ge-zhi-chu-xian-yi-ci-de-zi-fu-lcof" xr:uid="{924F36BF-0B1B-49B1-9ECE-6A98F3CDC2EB}"/>
+    <hyperlink ref="C51" r:id="rId24" display="https://leetcode-cn.com/problems/di-yi-ge-zhi-chu-xian-yi-ci-de-zi-fu-lcof/solution" xr:uid="{EA82D282-374B-4D73-9FEF-D573F940BF1C}"/>
+    <hyperlink ref="B48" r:id="rId25" display="https://leetcode-cn.com/problems/li-wu-de-zui-da-jie-zhi-lcof" xr:uid="{342380D2-3464-4F5B-ACC4-DBF07AC3B959}"/>
+    <hyperlink ref="C48" r:id="rId26" display="https://leetcode-cn.com/problems/li-wu-de-zui-da-jie-zhi-lcof/solution" xr:uid="{B36E617A-8CA8-4E2B-AE99-10023026F78A}"/>
+    <hyperlink ref="B11" r:id="rId27" display="https://leetcode-cn.com/problems/ju-zhen-zhong-de-lu-jing-lcof" xr:uid="{CE4C3623-CF35-4407-AC6C-F6CD83A39B30}"/>
+    <hyperlink ref="C11" r:id="rId28" display="https://leetcode-cn.com/problems/ju-zhen-zhong-de-lu-jing-lcof/solution" xr:uid="{A2309F3A-2428-49FB-914D-7F9812F1CB6B}"/>
+    <hyperlink ref="B7" r:id="rId29" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof" xr:uid="{880E45BE-1178-4E88-AF9F-3C691186EBB8}"/>
+    <hyperlink ref="C7" r:id="rId30" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/solution" xr:uid="{C43F5BC9-63E4-478A-8A48-51AEC8E3A19B}"/>
+    <hyperlink ref="B65" r:id="rId31" display="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof" xr:uid="{B05051C8-70B0-477B-A638-D3C4321B93B6}"/>
+    <hyperlink ref="C65" r:id="rId32" display="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/solution" xr:uid="{44EF4799-E3E6-424B-8B71-F08CD08BBC12}"/>
+    <hyperlink ref="B71" r:id="rId33" display="https://leetcode-cn.com/problems/qiu-12n-lcof" xr:uid="{343DE3F0-7F9D-421C-BDB5-98073B189D17}"/>
+    <hyperlink ref="C71" r:id="rId34" display="https://leetcode-cn.com/problems/qiu-12n-lcof/solution" xr:uid="{845C4AD2-F966-4835-B391-08DC9E647D94}"/>
+    <hyperlink ref="B19" r:id="rId35" display="https://leetcode-cn.com/problems/zheng-ze-biao-da-shi-pi-pei-lcof" xr:uid="{160F90B5-A3FA-4E59-93D8-6918642C4F28}"/>
+    <hyperlink ref="C19" r:id="rId36" display="https://leetcode-cn.com/problems/zheng-ze-biao-da-shi-pi-pei-lcof/solution" xr:uid="{4344F3B3-EA2C-4E66-8B2C-61417433C9B5}"/>
+    <hyperlink ref="B25" r:id="rId37" display="https://leetcode-cn.com/problems/shu-de-zi-jie-gou-lcof" xr:uid="{CD0FE70E-8666-4DC8-A212-8B5BA195D4A9}"/>
+    <hyperlink ref="C25" r:id="rId38" display="https://leetcode-cn.com/problems/shu-de-zi-jie-gou-lcof/solution" xr:uid="{3AC5A170-025A-49C3-ABA4-EEC78ADDC0C9}"/>
+    <hyperlink ref="B30" r:id="rId39" display="https://leetcode-cn.com/problems/zhan-de-ya-ru-dan-chu-xu-lie-lcof" xr:uid="{5A15DE2C-A16B-476A-AF07-A01DA25C8FBD}"/>
+    <hyperlink ref="C30" r:id="rId40" display="https://leetcode-cn.com/problems/zhan-de-ya-ru-dan-chu-xu-lie-lcof/solution" xr:uid="{2E05C50F-02AD-4799-AD2D-76B10D9FF5A5}"/>
+    <hyperlink ref="B73" r:id="rId41" display="https://leetcode-cn.com/problems/gou-jian-cheng-ji-shu-zu-lcof" xr:uid="{C964816D-497A-4619-8CB3-0B2863D52396}"/>
+    <hyperlink ref="C73" r:id="rId42" display="https://leetcode-cn.com/problems/gou-jian-cheng-ji-shu-zu-lcof/solution" xr:uid="{E7E41E00-1D40-4039-8C47-E3D0D27A86B4}"/>
+    <hyperlink ref="B12" r:id="rId43" display="https://leetcode-cn.com/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof" xr:uid="{C61B9479-29EF-475F-A979-0634573CE632}"/>
+    <hyperlink ref="C12" r:id="rId44" display="https://leetcode-cn.com/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution" xr:uid="{72B55F0A-0622-462D-94C9-D7D037064D69}"/>
+    <hyperlink ref="B49" r:id="rId45" display="https://leetcode-cn.com/problems/zui-chang-bu-han-zhong-fu-zi-fu-de-zi-zi-fu-chuan-lcof" xr:uid="{C10CA158-1660-4E61-80EE-0DD77855D227}"/>
+    <hyperlink ref="C49" r:id="rId46" display="https://leetcode-cn.com/problems/zui-chang-bu-han-zhong-fu-zi-fu-de-zi-zi-fu-chuan-lcof/solution" xr:uid="{8B35E367-F11F-415A-89D3-CF0D2A601E72}"/>
+    <hyperlink ref="B41" r:id="rId47" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof" xr:uid="{7B583846-8A9E-4571-BC89-422EA6D3378D}"/>
+    <hyperlink ref="C41" r:id="rId48" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/solution" xr:uid="{1D7D209B-CAFD-4CA1-9336-24835C8AF21A}"/>
+    <hyperlink ref="B4" r:id="rId49" display="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof" xr:uid="{A0458FF9-9F17-4D88-B591-B5CF5DCC43DC}"/>
+    <hyperlink ref="C4" r:id="rId50" display="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof/solution" xr:uid="{989F64F0-43CA-4649-9B04-9BB82CE20F18}"/>
+    <hyperlink ref="B10" r:id="rId51" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof" xr:uid="{29FA21BC-07B2-485E-B9CE-AF98C996A72F}"/>
+    <hyperlink ref="C10" r:id="rId52" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/solution" xr:uid="{AE862673-0F40-430E-82CF-B7A2ED695366}"/>
+    <hyperlink ref="B8" r:id="rId53" display="https://leetcode-cn.com/problems/fei-bo-na-qi-shu-lie-lcof" xr:uid="{B582FAFB-2DD9-467D-9528-AE075B124825}"/>
+    <hyperlink ref="C8" r:id="rId54" display="https://leetcode-cn.com/problems/fei-bo-na-qi-shu-lie-lcof/solution" xr:uid="{0079DDEB-2E11-415F-AEDB-F13FA0ACA30B}"/>
+    <hyperlink ref="B2" r:id="rId55" display="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof" xr:uid="{ADA686E0-01BA-420A-87D6-E677B6059022}"/>
+    <hyperlink ref="C2" r:id="rId56" display="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof/solution" xr:uid="{9E0255BF-17A6-47DA-B782-F96DB6C7DD7A}"/>
+    <hyperlink ref="B52" r:id="rId57" display="https://leetcode-cn.com/problems/shu-zu-zhong-de-ni-xu-dui-lcof" xr:uid="{0C7CDE81-D35E-428B-A2E4-249566E169F9}"/>
+    <hyperlink ref="C52" r:id="rId58" display="https://leetcode-cn.com/problems/shu-zu-zhong-de-ni-xu-dui-lcof/solution" xr:uid="{0C52C05E-07EC-4FBA-8721-49DCCCE03A5A}"/>
+    <hyperlink ref="B59" r:id="rId59" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof" xr:uid="{D14E8382-52EC-4A3D-B61B-A2BF74267EC7}"/>
+    <hyperlink ref="C59" r:id="rId60" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof/solution" xr:uid="{F05451E9-D6A5-4509-AFFC-57C3E4F49160}"/>
+    <hyperlink ref="B60" r:id="rId61" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-ii-lcof" xr:uid="{E095F479-FE1D-49D5-AA35-5C7641CF22B3}"/>
+    <hyperlink ref="C60" r:id="rId62" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-ii-lcof/solution" xr:uid="{9650DF00-1DDB-4F12-9237-724257553B98}"/>
+    <hyperlink ref="B40" r:id="rId63" display="https://leetcode-cn.com/problems/shu-zu-zhong-chu-xian-ci-shu-chao-guo-yi-ban-de-shu-zi-lcof" xr:uid="{FB967310-5586-4255-B06E-2AFF34A0953B}"/>
+    <hyperlink ref="C40" r:id="rId64" display="https://leetcode-cn.com/problems/shu-zu-zhong-chu-xian-ci-shu-chao-guo-yi-ban-de-shu-zi-lcof/solution" xr:uid="{D0843E0B-E209-42A5-B9BD-E35D7A691665}"/>
+    <hyperlink ref="B42" r:id="rId65" display="https://leetcode-cn.com/problems/shu-ju-liu-zhong-de-zhong-wei-shu-lcof" xr:uid="{E98B3C1A-360F-48FB-A0BD-C44C5A040412}"/>
+    <hyperlink ref="C42" r:id="rId66" display="https://leetcode-cn.com/problems/shu-ju-liu-zhong-de-zhong-wei-shu-lcof/solution" xr:uid="{16030428-EC7B-448D-A473-59427BE9C350}"/>
+    <hyperlink ref="B45" r:id="rId67" display="https://leetcode-cn.com/problems/shu-zi-xu-lie-zhong-mou-yi-wei-de-shu-zi-lcof" xr:uid="{0A487002-F835-4F40-A9B1-4714F35FEA5E}"/>
+    <hyperlink ref="C45" r:id="rId68" display="https://leetcode-cn.com/problems/shu-zi-xu-lie-zhong-mou-yi-wei-de-shu-zi-lcof/solution" xr:uid="{6223772F-4C6C-4ED6-9F46-8E0CB0CC6FCD}"/>
+    <hyperlink ref="B16" r:id="rId69" display="https://leetcode-cn.com/problems/shu-zhi-de-zheng-shu-ci-fang-lcof" xr:uid="{34BD301F-0C6B-4568-9195-D4D465DD1E9E}"/>
+    <hyperlink ref="C16" r:id="rId70" display="https://leetcode-cn.com/problems/shu-zhi-de-zheng-shu-ci-fang-lcof/solution" xr:uid="{749A7FF0-39D4-4C29-A8E7-6235372F7BC7}"/>
+    <hyperlink ref="B46" r:id="rId71" display="https://leetcode-cn.com/problems/ba-shu-zu-pai-cheng-zui-xiao-de-shu-lcof" xr:uid="{9D9E3813-7906-4183-9E66-AF91F80D246D}"/>
+    <hyperlink ref="C46" r:id="rId72" display="https://leetcode-cn.com/problems/ba-shu-zu-pai-cheng-zui-xiao-de-shu-lcof/solution" xr:uid="{1CA18926-E15C-4A95-8560-9E7A6F8B92B6}"/>
+    <hyperlink ref="B47" r:id="rId73" display="https://leetcode-cn.com/problems/ba-shu-zi-fan-yi-cheng-zi-fu-chuan-lcof" xr:uid="{DC3670BD-1704-4419-BCF9-12A73FA3107E}"/>
+    <hyperlink ref="C47" r:id="rId74" display="https://leetcode-cn.com/problems/ba-shu-zi-fan-yi-cheng-zi-fu-chuan-lcof/solution" xr:uid="{4FFDEAB3-2DC9-4D6A-AC5B-4C530D3BBCA1}"/>
+    <hyperlink ref="B74" r:id="rId75" display="https://leetcode-cn.com/problems/ba-zi-fu-chuan-zhuan-huan-cheng-zheng-shu-lcof" xr:uid="{D048E730-D5F6-42F6-9E22-CD9F980AC435}"/>
+    <hyperlink ref="C74" r:id="rId76" display="https://leetcode-cn.com/problems/ba-zi-fu-chuan-zhuan-huan-cheng-zheng-shu-lcof/solution" xr:uid="{3DAA2B58-CCBD-4584-8B1B-07C2EEE49F1F}"/>
+    <hyperlink ref="B17" r:id="rId77" display="https://leetcode-cn.com/problems/da-yin-cong-1dao-zui-da-de-nwei-shu-lcof" xr:uid="{C07F9603-1BDA-46C3-9334-C5F447ECD966}"/>
+    <hyperlink ref="C17" r:id="rId78" display="https://leetcode-cn.com/problems/da-yin-cong-1dao-zui-da-de-nwei-shu-lcof/solution" xr:uid="{5857BE9B-211C-4F66-AD23-5E4BBCEDAE9E}"/>
+    <hyperlink ref="B68" r:id="rId79" display="https://leetcode-cn.com/problems/bu-ke-pai-zhong-de-shun-zi-lcof" xr:uid="{8AA8DBE0-FF79-4062-98EC-2DEC92DD1F9C}"/>
+    <hyperlink ref="C68" r:id="rId80" display="https://leetcode-cn.com/problems/bu-ke-pai-zhong-de-shun-zi-lcof/solution" xr:uid="{E9CE8A8C-B1D8-4212-A7B4-3F555F4976C0}"/>
+    <hyperlink ref="B38" r:id="rId81" display="https://leetcode-cn.com/problems/xu-lie-hua-er-cha-shu-lcof" xr:uid="{3B9371CA-F040-4D38-B7EC-C7F3CB66F57D}"/>
+    <hyperlink ref="C38" r:id="rId82" display="https://leetcode-cn.com/problems/xu-lie-hua-er-cha-shu-lcof/solution" xr:uid="{03606E02-0790-4EC4-AD7A-34D4F622C446}"/>
+    <hyperlink ref="B58" r:id="rId83" display="https://leetcode-cn.com/problems/ping-heng-er-cha-shu-lcof" xr:uid="{B37FEC86-8EB0-4AFE-8567-B3D1F6689E68}"/>
+    <hyperlink ref="C58" r:id="rId84" display="https://leetcode-cn.com/problems/ping-heng-er-cha-shu-lcof/solution" xr:uid="{4116F5BA-F6F9-46C0-B10E-B2C031294DA3}"/>
+    <hyperlink ref="B64" r:id="rId85" display="https://leetcode-cn.com/problems/zuo-xuan-zhuan-zi-fu-chuan-lcof" xr:uid="{54E61A57-26E2-4230-AFCE-6EDC2F395C7C}"/>
+    <hyperlink ref="C64" r:id="rId86" display="https://leetcode-cn.com/problems/zuo-xuan-zhuan-zi-fu-chuan-lcof/solution" xr:uid="{145C6A5A-B149-4B4E-872D-32496C108090}"/>
+    <hyperlink ref="B27" r:id="rId87" display="https://leetcode-cn.com/problems/dui-cheng-de-er-cha-shu-lcof" xr:uid="{DC036BDF-C068-4BEA-AF8F-B22B49F870F0}"/>
+    <hyperlink ref="C27" r:id="rId88" display="https://leetcode-cn.com/problems/dui-cheng-de-er-cha-shu-lcof/solution" xr:uid="{073EFE65-AABF-4971-80EE-4366ECD7D19A}"/>
+    <hyperlink ref="B39" r:id="rId89" display="https://leetcode-cn.com/problems/zi-fu-chuan-de-pai-lie-lcof" xr:uid="{042ED0D3-ECE4-4BF3-943A-15A99EEA7006}"/>
+    <hyperlink ref="C39" r:id="rId90" display="https://leetcode-cn.com/problems/zi-fu-chuan-de-pai-lie-lcof/solution" xr:uid="{52ABFAA1-EF69-4560-AEF1-4B1660690FE3}"/>
+    <hyperlink ref="B36" r:id="rId91" display="https://leetcode-cn.com/problems/fu-za-lian-biao-de-fu-zhi-lcof" xr:uid="{72EA024E-721E-4429-9160-4E25027162FC}"/>
+    <hyperlink ref="C36" r:id="rId92" display="https://leetcode-cn.com/problems/fu-za-lian-biao-de-fu-zhi-lcof/solution" xr:uid="{9BE4353F-868F-4463-8E33-7BB5015D3E82}"/>
+    <hyperlink ref="B54" r:id="rId93" display="https://leetcode-cn.com/problems/zai-pai-xu-shu-zu-zhong-cha-zhao-shu-zi-lcof" xr:uid="{E613E91E-2099-4BE1-9DD1-111E8860353D}"/>
+    <hyperlink ref="C54" r:id="rId94" display="https://leetcode-cn.com/problems/zai-pai-xu-shu-zu-zhong-cha-zhao-shu-zi-lcof/solution" xr:uid="{BB9C5190-5249-4E3C-9C05-56C4F58D416D}"/>
+    <hyperlink ref="B69" r:id="rId95" display="https://leetcode-cn.com/problems/yuan-quan-zhong-zui-hou-sheng-xia-de-shu-zi-lcof" xr:uid="{937D2FAC-BDEB-4D6A-98D1-D985FF7EEFB5}"/>
+    <hyperlink ref="C69" r:id="rId96" display="https://leetcode-cn.com/problems/yuan-quan-zhong-zui-hou-sheng-xia-de-shu-zi-lcof/solution" xr:uid="{4C9D92D3-3423-426E-AE4C-8FBD1A317054}"/>
+    <hyperlink ref="B62" r:id="rId97" display="https://leetcode-cn.com/problems/he-wei-sde-lian-xu-zheng-shu-xu-lie-lcof" xr:uid="{13F26431-E2E7-464E-9BFD-0EDB2694A1A3}"/>
+    <hyperlink ref="C62" r:id="rId98" display="https://leetcode-cn.com/problems/he-wei-sde-lian-xu-zheng-shu-xu-lie-lcof/solution" xr:uid="{7A521B1A-A12B-486F-A146-686614C673DD}"/>
+    <hyperlink ref="B61" r:id="rId99" display="https://leetcode-cn.com/problems/he-wei-sde-liang-ge-shu-zi-lcof" xr:uid="{63BC5BF2-1804-4067-A306-992B853C2154}"/>
+    <hyperlink ref="C61" r:id="rId100" display="https://leetcode-cn.com/problems/he-wei-sde-liang-ge-shu-zi-lcof/solution" xr:uid="{A439A4B0-CE02-446E-B3C2-439D13793357}"/>
+    <hyperlink ref="B24" r:id="rId101" display="https://leetcode-cn.com/problems/he-bing-liang-ge-pai-xu-de-lian-biao-lcof" xr:uid="{726802CC-BB25-4D80-A627-03CDE7D086CA}"/>
+    <hyperlink ref="C24" r:id="rId102" display="https://leetcode-cn.com/problems/he-bing-liang-ge-pai-xu-de-lian-biao-lcof/solution" xr:uid="{7B0B0F0C-C6D4-4E72-AFE9-06274FEE6EA9}"/>
+    <hyperlink ref="B23" r:id="rId103" display="https://leetcode-cn.com/problems/fan-zhuan-lian-biao-lcof" xr:uid="{AEE5410A-DA69-40C3-9507-B3925C91115D}"/>
+    <hyperlink ref="C23" r:id="rId104" display="https://leetcode-cn.com/problems/fan-zhuan-lian-biao-lcof/solution" xr:uid="{BCD19ABC-57C3-4CDC-9A3F-48CB03F6ABF4}"/>
+    <hyperlink ref="B29" r:id="rId105" display="https://leetcode-cn.com/problems/bao-han-minhan-shu-de-zhan-lcof" xr:uid="{8F71BA24-35E9-4F9C-9BF5-60C6D1384B96}"/>
+    <hyperlink ref="C29" r:id="rId106" display="https://leetcode-cn.com/problems/bao-han-minhan-shu-de-zhan-lcof/solution" xr:uid="{E1F0A159-C916-4CEB-8F1B-C9530CAE5BD0}"/>
+    <hyperlink ref="B14" r:id="rId107" display="https://leetcode-cn.com/problems/jian-sheng-zi-ii-lcof" xr:uid="{7AC5345D-F00F-4EFF-8223-5562C1058DD3}"/>
+    <hyperlink ref="C14" r:id="rId108" display="https://leetcode-cn.com/problems/jian-sheng-zi-ii-lcof/solution" xr:uid="{3723C80C-2247-489F-8DAC-10BC0D837088}"/>
+    <hyperlink ref="B13" r:id="rId109" display="https://leetcode-cn.com/problems/jian-sheng-zi-lcof" xr:uid="{2537197C-2870-418E-9F96-BC3435C74F52}"/>
+    <hyperlink ref="C13" r:id="rId110" display="https://leetcode-cn.com/problems/jian-sheng-zi-lcof/solution" xr:uid="{4CE8F601-B399-4C7E-87AD-6613DF9F5C0F}"/>
+    <hyperlink ref="B18" r:id="rId111" display="https://leetcode-cn.com/problems/shan-chu-lian-biao-de-jie-dian-lcof" xr:uid="{9B188A2D-DA5C-4F4B-AA15-FA301620C830}"/>
+    <hyperlink ref="C18" r:id="rId112" display="https://leetcode-cn.com/problems/shan-chu-lian-biao-de-jie-dian-lcof/solution" xr:uid="{1A7FB13E-B24D-4D96-AA1F-292448892F4A}"/>
+    <hyperlink ref="B5" r:id="rId113" display="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof" xr:uid="{28160F82-8710-4BCD-AE9E-D3CED65F391E}"/>
+    <hyperlink ref="C5" r:id="rId114" display="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/solution" xr:uid="{F84BE86F-0320-4667-840F-F72495F235D3}"/>
+    <hyperlink ref="B31" r:id="rId115" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-lcof" xr:uid="{96770168-4CE7-4128-B5A8-78CEB9D3B8D2}"/>
+    <hyperlink ref="C31" r:id="rId116" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-lcof/solution" xr:uid="{23C1ED95-D87E-4FC1-8D2B-6D28680F2829}"/>
+    <hyperlink ref="B33" r:id="rId117" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-iii-lcof" xr:uid="{978DF3CC-172F-4850-B43C-70E3AC4A44EB}"/>
+    <hyperlink ref="C33" r:id="rId118" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-iii-lcof/solution" xr:uid="{B6940DE8-A214-44E5-AEC6-4DE9446EA171}"/>
+    <hyperlink ref="B32" r:id="rId119" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-ii-lcof" xr:uid="{9A75B102-5260-48AA-9710-A0A235A006D3}"/>
+    <hyperlink ref="C32" r:id="rId120" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-ii-lcof/solution" xr:uid="{BA738C14-2C9E-4073-A486-C211BF5D208F}"/>
+    <hyperlink ref="B15" r:id="rId121" display="https://leetcode-cn.com/problems/er-jin-zhi-zhong-1de-ge-shu-lcof" xr:uid="{6B3D2848-C78C-40B1-B682-9B402E48511F}"/>
+    <hyperlink ref="C15" r:id="rId122" display="https://leetcode-cn.com/problems/er-jin-zhi-zhong-1de-ge-shu-lcof/solution" xr:uid="{D7222BFA-ACFA-4863-83D7-4A3489E7E01A}"/>
+    <hyperlink ref="B3" r:id="rId123" display="https://leetcode-cn.com/problems/er-wei-shu-zu-zhong-de-cha-zhao-lcof" xr:uid="{157E49CD-7D5D-45BC-B3C4-733596BA85A2}"/>
+    <hyperlink ref="C3" r:id="rId124" display="https://leetcode-cn.com/problems/er-wei-shu-zu-zhong-de-cha-zhao-lcof/solution" xr:uid="{AA86B5E9-CD4C-4EDE-AC7E-991C805DB8DE}"/>
+    <hyperlink ref="B26" r:id="rId125" display="https://leetcode-cn.com/problems/er-cha-shu-de-jing-xiang-lcof" xr:uid="{38598045-0176-4063-A20A-66D3973A09C3}"/>
+    <hyperlink ref="C26" r:id="rId126" display="https://leetcode-cn.com/problems/er-cha-shu-de-jing-xiang-lcof/solution" xr:uid="{1124F470-4211-48B6-9488-17BFBB37AF4B}"/>
+    <hyperlink ref="B57" r:id="rId127" display="https://leetcode-cn.com/problems/er-cha-shu-de-shen-du-lcof" xr:uid="{77AFCAD9-564B-4586-892F-67358A727FA5}"/>
+    <hyperlink ref="C57" r:id="rId128" display="https://leetcode-cn.com/problems/er-cha-shu-de-shen-du-lcof/solution" xr:uid="{2725F46E-ADD4-4CEC-954C-508EB01BDA8A}"/>
+    <hyperlink ref="B76" r:id="rId129" display="https://leetcode-cn.com/problems/er-cha-shu-de-zui-jin-gong-gong-zu-xian-lcof" xr:uid="{E5E70921-F676-4CA6-9FA6-E0C29810EDE8}"/>
+    <hyperlink ref="C76" r:id="rId130" display="https://leetcode-cn.com/problems/er-cha-shu-de-zui-jin-gong-gong-zu-xian-lcof/solution" xr:uid="{213E6BBB-D3FE-4365-A7CF-92B9B0F704F0}"/>
+    <hyperlink ref="B35" r:id="rId131" display="https://leetcode-cn.com/problems/er-cha-shu-zhong-he-wei-mou-yi-zhi-de-lu-jing-lcof" xr:uid="{8653B2A0-6873-4354-92E5-CB06703D447A}"/>
+    <hyperlink ref="C35" r:id="rId132" display="https://leetcode-cn.com/problems/er-cha-shu-zhong-he-wei-mou-yi-zhi-de-lu-jing-lcof/solution" xr:uid="{8E6D2B12-3365-4F90-A98F-3FDCE68B0893}"/>
+    <hyperlink ref="B56" r:id="rId133" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-di-kda-jie-dian-lcof" xr:uid="{90679D34-5B51-4D08-BC58-AD19F0D99DFB}"/>
+    <hyperlink ref="C56" r:id="rId134" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-di-kda-jie-dian-lcof/solution" xr:uid="{25B38367-FB2A-42C5-B76C-126890FC389A}"/>
+    <hyperlink ref="B75" r:id="rId135" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-zui-jin-gong-gong-zu-xian-lcof" xr:uid="{64C40187-FD90-4A4F-869C-A14297EAF136}"/>
+    <hyperlink ref="C75" r:id="rId136" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-zui-jin-gong-gong-zu-xian-lcof/solution" xr:uid="{774E8C9F-6C64-42D3-87D5-8986C7808F65}"/>
+    <hyperlink ref="B34" r:id="rId137" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-hou-xu-bian-li-xu-lie-lcof" xr:uid="{1087A1B8-9264-4650-9047-B547EC409BAD}"/>
+    <hyperlink ref="C34" r:id="rId138" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-hou-xu-bian-li-xu-lie-lcof/solution" xr:uid="{4E8A6302-D081-483A-9CC2-8B4F65B82105}"/>
+    <hyperlink ref="B37" r:id="rId139" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-yu-shuang-xiang-lian-biao-lcof" xr:uid="{32FD0221-B955-45E8-86BB-367DC94B4408}"/>
+    <hyperlink ref="C37" r:id="rId140" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-yu-shuang-xiang-lian-biao-lcof/solution" xr:uid="{5C3D98DE-6856-4ECC-80AA-7D12EFB694E4}"/>
+    <hyperlink ref="B53" r:id="rId141" display="https://leetcode-cn.com/problems/liang-ge-lian-biao-de-di-yi-ge-gong-gong-jie-dian-lcof" xr:uid="{7826CA34-5DDE-4878-A4B5-7E0B187F2147}"/>
+    <hyperlink ref="C53" r:id="rId142" display="https://leetcode-cn.com/problems/liang-ge-lian-biao-de-di-yi-ge-gong-gong-jie-dian-lcof/solution" xr:uid="{E9A6DB8C-B80F-421E-8F12-9696A62EA2D2}"/>
+    <hyperlink ref="B50" r:id="rId143" display="https://leetcode-cn.com/problems/chou-shu-lcof" xr:uid="{32E9D6B9-443B-4C44-8969-3DBD74F7B2A8}"/>
+    <hyperlink ref="C50" r:id="rId144" display="https://leetcode-cn.com/problems/chou-shu-lcof/solution" xr:uid="{48F0109A-1822-4E1A-A4CA-42ADD59310D1}"/>
+    <hyperlink ref="B72" r:id="rId145" display="https://leetcode-cn.com/problems/bu-yong-jia-jian-cheng-chu-zuo-jia-fa-lcof" xr:uid="{ACF4AC86-4FD4-440A-8D2E-6B16EFFFFCFF}"/>
+    <hyperlink ref="C72" r:id="rId146" display="https://leetcode-cn.com/problems/bu-yong-jia-jian-cheng-chu-zuo-jia-fa-lcof/solution" xr:uid="{2A05F0F6-616A-440A-8E5F-A48D06D42821}"/>
+    <hyperlink ref="B67" r:id="rId147" display="https://leetcode-cn.com/problems/nge-tou-zi-de-dian-shu-lcof" xr:uid="{31BFA26A-143A-4EE6-860F-C629A4725602}"/>
+    <hyperlink ref="C67" r:id="rId148" display="https://leetcode-cn.com/problems/nge-tou-zi-de-dian-shu-lcof/solution" xr:uid="{CE9C1455-DD32-4E14-B7CB-6C2AFE079E8F}"/>
+    <hyperlink ref="B44" r:id="rId149" display="https://leetcode-cn.com/problems/1nzheng-shu-zhong-1chu-xian-de-ci-shu-lcof" xr:uid="{A16767E5-F44C-4D68-B16E-E675093A92B2}"/>
+    <hyperlink ref="C44" r:id="rId150" display="https://leetcode-cn.com/problems/1nzheng-shu-zhong-1chu-xian-de-ci-shu-lcof/solution" xr:uid="{A85C35D7-90B5-44DC-B73B-AA3DAB527E55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId151"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B16F7F-4399-4551-9209-1C8459E69A4B}">
+  <dimension ref="A2:E110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C2" s="1">
+        <v>179</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C3" s="1">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.316</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C8" s="1">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C11" s="1">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C12" s="1">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C13" s="1">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>744</v>
+      </c>
+      <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" s="1">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.496</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B16" t="s">
+        <v>941</v>
+      </c>
+      <c r="C16" s="1">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C17" s="1">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C20" s="1">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C22" s="1">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>862</v>
+      </c>
+      <c r="B27" t="s">
+        <v>863</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="1">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31" t="s">
+        <v>767</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>822</v>
+      </c>
+      <c r="B33" t="s">
+        <v>823</v>
+      </c>
+      <c r="C33" s="1">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="1">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>954</v>
+      </c>
+      <c r="B35" t="s">
+        <v>955</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>528</v>
+      </c>
+      <c r="B36" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>968</v>
+      </c>
+      <c r="B37" t="s">
+        <v>969</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C39" s="1">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C40" s="1">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>450</v>
+      </c>
+      <c r="B41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>915</v>
+      </c>
+      <c r="B42" t="s">
+        <v>916</v>
+      </c>
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="1">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C44" s="1">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>853</v>
+      </c>
+      <c r="B45" t="s">
+        <v>854</v>
+      </c>
+      <c r="C45" s="1">
+        <v>36</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>777</v>
+      </c>
+      <c r="B46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C47" s="1">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>871</v>
+      </c>
+      <c r="B48" t="s">
+        <v>872</v>
+      </c>
+      <c r="C48" s="1">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>818</v>
+      </c>
+      <c r="B49" t="s">
+        <v>819</v>
+      </c>
+      <c r="C49" s="1">
+        <v>23</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>876</v>
+      </c>
+      <c r="B50" t="s">
+        <v>877</v>
+      </c>
+      <c r="C50" s="1">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C51" s="1">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>523</v>
+      </c>
+      <c r="B52" t="s">
+        <v>524</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C53" s="1">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C54" s="1">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1875</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>740</v>
+      </c>
+      <c r="B57" t="s">
+        <v>741</v>
+      </c>
+      <c r="C57" s="1">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" s="1">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C59" s="1">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>473</v>
+      </c>
+      <c r="B60" t="s">
+        <v>474</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>704</v>
+      </c>
+      <c r="B61" t="s">
+        <v>705</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>699</v>
+      </c>
+      <c r="B62" t="s">
+        <v>700</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>874</v>
+      </c>
+      <c r="B63" t="s">
+        <v>875</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>860</v>
+      </c>
+      <c r="B64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C64" s="1">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C67" s="1">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C69" s="1">
+        <v>35</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>804</v>
+      </c>
+      <c r="B72" t="s">
+        <v>805</v>
+      </c>
+      <c r="C72" s="1">
+        <v>23</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>936</v>
+      </c>
+      <c r="B73" t="s">
+        <v>937</v>
+      </c>
+      <c r="C73" s="1">
+        <v>25</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" t="s">
+        <v>303</v>
+      </c>
+      <c r="C75" s="1">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C76" s="1">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" t="s">
+        <v>394</v>
+      </c>
+      <c r="C77" s="1">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C78" s="1">
+        <v>43</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>715</v>
+      </c>
+      <c r="B80" t="s">
+        <v>716</v>
+      </c>
+      <c r="C80" s="1">
+        <v>23</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.629</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>802</v>
+      </c>
+      <c r="B81" t="s">
+        <v>803</v>
+      </c>
+      <c r="C81" s="1">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>353</v>
+      </c>
+      <c r="B82" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" s="1">
+        <v>16</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>517</v>
+      </c>
+      <c r="B83" t="s">
+        <v>518</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="1">
+        <v>12</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>565</v>
+      </c>
+      <c r="B85" t="s">
+        <v>566</v>
+      </c>
+      <c r="C85" s="1">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="1">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C87" s="1">
+        <v>13</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C88" s="1">
+        <v>57</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="1">
+        <v>14</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="1">
+        <v>17</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>23</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>477</v>
+      </c>
+      <c r="B93" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" s="1">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C94" s="1">
+        <v>59</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>787</v>
+      </c>
+      <c r="B95" t="s">
+        <v>788</v>
+      </c>
+      <c r="C95" s="1">
+        <v>30</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C96" s="1">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" t="s">
+        <v>489</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>562</v>
+      </c>
+      <c r="B98" t="s">
+        <v>563</v>
+      </c>
+      <c r="C98" s="1">
+        <v>31</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>415</v>
+      </c>
+      <c r="B101" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="1">
+        <v>14</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="1">
+        <v>13</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C103" s="1">
+        <v>16</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C105" s="1">
+        <v>19</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="1">
+        <v>16</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="1">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C108" s="1">
+        <v>11</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C110" s="1">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E110">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://leetcode-cn.com/problems/zero-matrix-lcci" xr:uid="{4D693365-718A-4A03-9997-1B84490E69A1}"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://leetcode-cn.com/problems/zero-matrix-lcci/solution" xr:uid="{16D0B31E-DF5B-41B2-957D-80CCA87E3D48}"/>
+    <hyperlink ref="B64" r:id="rId3" display="https://leetcode-cn.com/problems/words-frequency-lcci" xr:uid="{A4203AFA-4C9E-46EB-9118-5D3AA7F1AC29}"/>
+    <hyperlink ref="C64" r:id="rId4" display="https://leetcode-cn.com/problems/words-frequency-lcci/solution" xr:uid="{855D9575-6499-448B-902E-D33DDAED4F7A}"/>
+    <hyperlink ref="B106" r:id="rId5" display="https://leetcode-cn.com/problems/word-transformer-lcci" xr:uid="{F99EDA99-B6F1-448A-BB3F-BCD13DC6C87D}"/>
+    <hyperlink ref="C106" r:id="rId6" display="https://leetcode-cn.com/problems/word-transformer-lcci/solution" xr:uid="{6AC86D66-BCF6-4FAA-9C31-920FA884FA35}"/>
+    <hyperlink ref="B109" r:id="rId7" display="https://leetcode-cn.com/problems/word-rectangle-lcci" xr:uid="{78EF64DC-321D-4BFD-BBE0-F0B177554497}"/>
+    <hyperlink ref="C109" r:id="rId8" display="https://leetcode-cn.com/problems/word-rectangle-lcci/solution" xr:uid="{561D845E-41C0-4C90-AA35-52D70E1CFCE1}"/>
+    <hyperlink ref="B105" r:id="rId9" display="https://leetcode-cn.com/problems/volume-of-histogram-lcci" xr:uid="{0BDDEB3D-5AB6-4794-8E83-DDFDF3FC4892}"/>
+    <hyperlink ref="C105" r:id="rId10" display="https://leetcode-cn.com/problems/volume-of-histogram-lcci/solution" xr:uid="{883EFE38-39CF-4E1D-8467-91D76BDCAFF0}"/>
+    <hyperlink ref="B66" r:id="rId11" display="https://leetcode-cn.com/problems/tic-tac-toe-lcci" xr:uid="{EF4216E9-E84F-4A32-A462-7C3963852DF2}"/>
+    <hyperlink ref="C66" r:id="rId12" display="https://leetcode-cn.com/problems/tic-tac-toe-lcci/solution" xr:uid="{92BCACB6-2080-4014-A23A-1EA578746491}"/>
+    <hyperlink ref="B19" r:id="rId13" display="https://leetcode-cn.com/problems/three-in-one-lcci" xr:uid="{A47A838F-00C9-4205-BAF5-2822D302AB42}"/>
+    <hyperlink ref="C19" r:id="rId14" display="https://leetcode-cn.com/problems/three-in-one-lcci/solution" xr:uid="{38E211A2-E985-48E4-9D4A-D05A3755292A}"/>
+    <hyperlink ref="B42" r:id="rId15" display="https://leetcode-cn.com/problems/three-steps-problem-lcci" xr:uid="{8924A5D9-87F2-4820-8F64-0A23F7FC8657}"/>
+    <hyperlink ref="C42" r:id="rId16" display="https://leetcode-cn.com/problems/three-steps-problem-lcci/solution" xr:uid="{D44F7B2C-8339-483C-B74B-4109E3A2F64A}"/>
+    <hyperlink ref="B100" r:id="rId17" display="https://leetcode-cn.com/problems/the-masseuse-lcci" xr:uid="{ED86313D-41E0-4BBA-B84A-9DB769D73F34}"/>
+    <hyperlink ref="C100" r:id="rId18" display="https://leetcode-cn.com/problems/the-masseuse-lcci/solution" xr:uid="{3AC158B8-6398-4D9F-BDED-E00A40209F84}"/>
+    <hyperlink ref="B81" r:id="rId19" display="https://leetcode-cn.com/problems/t9-lcci" xr:uid="{7984607A-9035-4AF8-8398-CCBD481FC6D8}"/>
+    <hyperlink ref="C81" r:id="rId20" display="https://leetcode-cn.com/problems/t9-lcci/solution" xr:uid="{81257096-BBBE-4CBE-922B-4A4A46F54486}"/>
+    <hyperlink ref="B63" r:id="rId21" display="https://leetcode-cn.com/problems/swap-numbers-lcci" xr:uid="{65359800-1EB7-4665-870F-309541748F88}"/>
+    <hyperlink ref="C63" r:id="rId22" display="https://leetcode-cn.com/problems/swap-numbers-lcci/solution" xr:uid="{8C80F339-F449-4A23-B616-672F05AF2EDE}"/>
+    <hyperlink ref="B82" r:id="rId23" display="https://leetcode-cn.com/problems/sum-swap-lcci" xr:uid="{671DD66C-2D96-46CA-B468-F6DF0693AF11}"/>
+    <hyperlink ref="C82" r:id="rId24" display="https://leetcode-cn.com/problems/sum-swap-lcci/solution" xr:uid="{BCB86650-810D-4E26-8DAE-233245A0A31A}"/>
+    <hyperlink ref="B15" r:id="rId25" display="https://leetcode-cn.com/problems/sum-lists-lcci" xr:uid="{0E780318-181C-42D4-B114-6A612CC8ECCC}"/>
+    <hyperlink ref="C15" r:id="rId26" display="https://leetcode-cn.com/problems/sum-lists-lcci/solution" xr:uid="{E328EEE8-5D7B-4FC9-A212-9EB4BCAE4035}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://leetcode-cn.com/problems/successor-lcci" xr:uid="{E77023D1-F2D9-44EB-ABFD-81589A4959CE}"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://leetcode-cn.com/problems/successor-lcci/solution" xr:uid="{78C7983E-B42A-4CEE-9C7E-D11F56667319}"/>
+    <hyperlink ref="B77" r:id="rId29" display="https://leetcode-cn.com/problems/sub-sort-lcci" xr:uid="{A57A61D3-BB04-49D2-A001-D9DCAAE6BD91}"/>
+    <hyperlink ref="C77" r:id="rId30" display="https://leetcode-cn.com/problems/sub-sort-lcci/solution" xr:uid="{74763044-AD67-4463-AFA6-D1BE054C89D0}"/>
+    <hyperlink ref="B4" r:id="rId31" display="https://leetcode-cn.com/problems/string-to-url-lcci" xr:uid="{728ADEAB-F20D-4460-8F49-30979B98D0B0}"/>
+    <hyperlink ref="C4" r:id="rId32" display="https://leetcode-cn.com/problems/string-to-url-lcci/solution" xr:uid="{6C2FA549-7D27-43A7-94F3-C7B57CBE50FC}"/>
+    <hyperlink ref="B10" r:id="rId33" display="https://leetcode-cn.com/problems/string-rotation-lcci" xr:uid="{44251F93-E501-42E9-B392-28767BA3F409}"/>
+    <hyperlink ref="C10" r:id="rId34" display="https://leetcode-cn.com/problems/string-rotation-lcci/solution" xr:uid="{40EF5D23-42AB-4ECF-B500-9887A7C3F610}"/>
+    <hyperlink ref="B21" r:id="rId35" display="https://leetcode-cn.com/problems/stack-of-plates-lcci" xr:uid="{707CB07D-9452-43D8-8A0B-C4F68366780D}"/>
+    <hyperlink ref="C21" r:id="rId36" display="https://leetcode-cn.com/problems/stack-of-plates-lcci/solution" xr:uid="{B992A300-A47F-4382-865C-68A478E73446}"/>
+    <hyperlink ref="B110" r:id="rId37" display="https://leetcode-cn.com/problems/sparse-similarity-lcci" xr:uid="{CCB6E593-4844-4FC0-8B5A-7C6EEA6D4CB0}"/>
+    <hyperlink ref="C110" r:id="rId38" display="https://leetcode-cn.com/problems/sparse-similarity-lcci/solution" xr:uid="{2D32D258-B837-4E7C-9F17-481B4C2C15CD}"/>
+    <hyperlink ref="B59" r:id="rId39" display="https://leetcode-cn.com/problems/sparse-array-search-lcci" xr:uid="{FF4C63D5-94F9-41F7-ACF6-76E79AD6FCAB}"/>
+    <hyperlink ref="C59" r:id="rId40" display="https://leetcode-cn.com/problems/sparse-array-search-lcci/solution" xr:uid="{33C0A943-BA39-47B2-8490-6DC3D6E167C5}"/>
+    <hyperlink ref="B56" r:id="rId41" display="https://leetcode-cn.com/problems/sorted-merge-lcci" xr:uid="{233258F6-114E-4F33-825F-9B7F8ED68EAB}"/>
+    <hyperlink ref="C56" r:id="rId42" display="https://leetcode-cn.com/problems/sorted-merge-lcci/solution" xr:uid="{BF60A566-5765-4A2A-A135-A56794506896}"/>
+    <hyperlink ref="B60" r:id="rId43" display="https://leetcode-cn.com/problems/sorted-matrix-search-lcci" xr:uid="{0CF7EC6B-2976-4267-BEB9-06B56CEA8A30}"/>
+    <hyperlink ref="C60" r:id="rId44" display="https://leetcode-cn.com/problems/sorted-matrix-search-lcci/solution" xr:uid="{2D2408DC-B197-4118-8C04-23DABEA4CC93}"/>
+    <hyperlink ref="B23" r:id="rId45" display="https://leetcode-cn.com/problems/sort-of-stacks-lcci" xr:uid="{5FF7EE52-665F-4A8C-8725-C5EF0B6EE140}"/>
+    <hyperlink ref="C23" r:id="rId46" display="https://leetcode-cn.com/problems/sort-of-stacks-lcci/solution" xr:uid="{B0A20F1E-4E22-4731-8F8E-F4CA02806547}"/>
+    <hyperlink ref="B98" r:id="rId47" display="https://leetcode-cn.com/problems/smallest-k-lcci" xr:uid="{4C3681D6-8821-406C-BCEE-959AB51A7628}"/>
+    <hyperlink ref="C98" r:id="rId48" display="https://leetcode-cn.com/problems/smallest-k-lcci/solution" xr:uid="{E82FC055-C93D-4300-94A1-3735C42EFFE0}"/>
+    <hyperlink ref="B68" r:id="rId49" display="https://leetcode-cn.com/problems/smallest-difference-lcci" xr:uid="{0B4D341D-D0C8-49D6-8A13-527403617ABF}"/>
+    <hyperlink ref="C68" r:id="rId50" display="https://leetcode-cn.com/problems/smallest-difference-lcci/solution" xr:uid="{EB9977E2-3861-4740-B873-9F861173FCA7}"/>
+    <hyperlink ref="B102" r:id="rId51" display="https://leetcode-cn.com/problems/shortest-supersequence-lcci" xr:uid="{EBD88E14-252B-4733-A900-B3842862C023}"/>
+    <hyperlink ref="C102" r:id="rId52" display="https://leetcode-cn.com/problems/shortest-supersequence-lcci/solution" xr:uid="{25042BBF-BDDC-44D2-9203-DBCBAFD962E0}"/>
+    <hyperlink ref="B58" r:id="rId53" display="https://leetcode-cn.com/problems/search-rotate-array-lcci" xr:uid="{F9764642-0EF5-4587-9CF0-F5B4373460F2}"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://leetcode-cn.com/problems/search-rotate-array-lcci/solution" xr:uid="{65765274-E735-445D-AB64-1CA11DA323D0}"/>
+    <hyperlink ref="B25" r:id="rId55" display="https://leetcode-cn.com/problems/route-between-nodes-lcci" xr:uid="{AA9ACBBE-379C-47F1-82E0-DEA5077210CA}"/>
+    <hyperlink ref="C25" r:id="rId56" display="https://leetcode-cn.com/problems/route-between-nodes-lcci/solution" xr:uid="{2E92BB28-F7A3-43E8-AADB-259374B85417}"/>
+    <hyperlink ref="B8" r:id="rId57" display="https://leetcode-cn.com/problems/rotate-matrix-lcci" xr:uid="{8177AE30-26AE-491D-A1CC-7EBB3E39AEDB}"/>
+    <hyperlink ref="C8" r:id="rId58" display="https://leetcode-cn.com/problems/rotate-matrix-lcci/solution" xr:uid="{ABE43B95-0D2C-4EE2-8E39-4BD76EE55613}"/>
+    <hyperlink ref="B43" r:id="rId59" display="https://leetcode-cn.com/problems/robot-in-a-grid-lcci" xr:uid="{2410C2F6-8DE8-486D-A67C-B7292FF3A250}"/>
+    <hyperlink ref="C43" r:id="rId60" display="https://leetcode-cn.com/problems/robot-in-a-grid-lcci/solution" xr:uid="{997E4264-F3B6-4A2E-AE6E-E7FB616DEE79}"/>
+    <hyperlink ref="B37" r:id="rId61" display="https://leetcode-cn.com/problems/reverse-bits-lcci" xr:uid="{21B34B12-851E-4E4F-AEEE-6D3C650321C7}"/>
+    <hyperlink ref="C37" r:id="rId62" display="https://leetcode-cn.com/problems/reverse-bits-lcci/solution" xr:uid="{93F0F52A-4302-4F7D-9E3F-1351AE9CC9DE}"/>
+    <hyperlink ref="B11" r:id="rId63" display="https://leetcode-cn.com/problems/remove-duplicate-node-lcci" xr:uid="{6E7F5A40-EEEE-4EFA-9B99-C638F8F40681}"/>
+    <hyperlink ref="C11" r:id="rId64" display="https://leetcode-cn.com/problems/remove-duplicate-node-lcci/solution" xr:uid="{8A539E9E-4499-4CE3-A17F-9F5C439415E8}"/>
+    <hyperlink ref="B46" r:id="rId65" display="https://leetcode-cn.com/problems/recursive-mulitply-lcci" xr:uid="{9BF14268-2662-49F3-82F0-C0CD8309C081}"/>
+    <hyperlink ref="C46" r:id="rId66" display="https://leetcode-cn.com/problems/recursive-mulitply-lcci/solution" xr:uid="{8759A67B-5F2C-4806-B12F-6920A2E011B0}"/>
+    <hyperlink ref="B97" r:id="rId67" display="https://leetcode-cn.com/problems/re-space-lcci" xr:uid="{E946EBFC-2C25-461B-8CD1-CDC828846072}"/>
+    <hyperlink ref="C97" r:id="rId68" display="https://leetcode-cn.com/problems/re-space-lcci/solution" xr:uid="{190268A4-7B37-4EC3-974E-2136B1EC6C3E}"/>
+    <hyperlink ref="B61" r:id="rId69" display="https://leetcode-cn.com/problems/rank-from-stream-lcci" xr:uid="{E82CE630-AA3B-4A3B-92F8-5E3CF5708125}"/>
+    <hyperlink ref="C61" r:id="rId70" display="https://leetcode-cn.com/problems/rank-from-stream-lcci/solution" xr:uid="{669B71A7-F44C-4245-ACF9-20D5453CA523}"/>
+    <hyperlink ref="B45" r:id="rId71" display="https://leetcode-cn.com/problems/power-set-lcci" xr:uid="{411B9396-B5EA-4449-8BE1-0468C1126A1A}"/>
+    <hyperlink ref="C45" r:id="rId72" display="https://leetcode-cn.com/problems/power-set-lcci/solution" xr:uid="{25501F2C-E551-4DA7-BB1B-70970CCF1A54}"/>
+    <hyperlink ref="B80" r:id="rId73" display="https://leetcode-cn.com/problems/pond-sizes-lcci" xr:uid="{97B0A550-8CD0-40EB-A689-DEFE95EA91F2}"/>
+    <hyperlink ref="C80" r:id="rId74" display="https://leetcode-cn.com/problems/pond-sizes-lcci/solution" xr:uid="{82CD072C-47E2-4C5C-8B5C-61DDA4BF1B5C}"/>
+    <hyperlink ref="B54" r:id="rId75" display="https://leetcode-cn.com/problems/pile-box-lcci" xr:uid="{2C99DCC1-D620-4516-A586-F5B4A245E7F2}"/>
+    <hyperlink ref="C54" r:id="rId76" display="https://leetcode-cn.com/problems/pile-box-lcci/solution" xr:uid="{3936EBC3-CA7E-48A5-BA91-900BECF87CFD}"/>
+    <hyperlink ref="B49" r:id="rId77" display="https://leetcode-cn.com/problems/permutation-ii-lcci" xr:uid="{2611DC01-E638-4BA7-838A-E9AA6C8101A0}"/>
+    <hyperlink ref="C49" r:id="rId78" display="https://leetcode-cn.com/problems/permutation-ii-lcci/solution" xr:uid="{1D2F20A2-A2F5-4737-A148-98963B9C8DBF}"/>
+    <hyperlink ref="B48" r:id="rId79" display="https://leetcode-cn.com/problems/permutation-i-lcci" xr:uid="{ADAE5014-27C4-4095-8CB4-C5E50E08D063}"/>
+    <hyperlink ref="C48" r:id="rId80" display="https://leetcode-cn.com/problems/permutation-i-lcci/solution" xr:uid="{C4EEAA1C-A37C-4552-912D-5C422ABBDFC1}"/>
+    <hyperlink ref="B62" r:id="rId81" display="https://leetcode-cn.com/problems/peaks-and-valleys-lcci" xr:uid="{E8225F5A-08BC-4529-9AC0-482B9598B283}"/>
+    <hyperlink ref="C62" r:id="rId82" display="https://leetcode-cn.com/problems/peaks-and-valleys-lcci/solution" xr:uid="{97D7A0C5-7F9E-46EB-BE0C-D0296D9243A9}"/>
+    <hyperlink ref="B79" r:id="rId83" display="https://leetcode-cn.com/problems/pattern-matching-lcci" xr:uid="{7BB5C30D-7847-441F-8D58-0617179682FD}"/>
+    <hyperlink ref="C79" r:id="rId84" display="https://leetcode-cn.com/problems/pattern-matching-lcci/solution" xr:uid="{DC1D0C2D-F0E3-4884-883D-E4738DEA5EA4}"/>
+    <hyperlink ref="B34" r:id="rId85" display="https://leetcode-cn.com/problems/paths-with-sum-lcci" xr:uid="{C8B9F09F-97D3-492F-9694-F0C4D21F58B3}"/>
+    <hyperlink ref="C34" r:id="rId86" display="https://leetcode-cn.com/problems/paths-with-sum-lcci/solution" xr:uid="{C945CD26-F389-4D5C-8A48-7649B1AB2A72}"/>
+    <hyperlink ref="B14" r:id="rId87" display="https://leetcode-cn.com/problems/partition-list-lcci" xr:uid="{1DC54FBE-83DB-4D61-BA4E-E3AEE971E9A5}"/>
+    <hyperlink ref="C14" r:id="rId88" display="https://leetcode-cn.com/problems/partition-list-lcci/solution" xr:uid="{15B729F2-8C2C-43B1-B860-46C51F5271B6}"/>
+    <hyperlink ref="B5" r:id="rId89" display="https://leetcode-cn.com/problems/palindrome-permutation-lcci" xr:uid="{7CEB3252-117F-479C-8C6B-D5F113FCDEA0}"/>
+    <hyperlink ref="C5" r:id="rId90" display="https://leetcode-cn.com/problems/palindrome-permutation-lcci/solution" xr:uid="{3169632B-0314-455A-BC8A-7F5CE0436C79}"/>
+    <hyperlink ref="B16" r:id="rId91" display="https://leetcode-cn.com/problems/palindrome-linked-list-lcci" xr:uid="{62A9D20F-54CB-45F0-A288-08DD76982B80}"/>
+    <hyperlink ref="C16" r:id="rId92" display="https://leetcode-cn.com/problems/palindrome-linked-list-lcci/solution" xr:uid="{162D53E5-28EE-4DC9-BDFE-4EE7D79EABD8}"/>
+    <hyperlink ref="B84" r:id="rId93" display="https://leetcode-cn.com/problems/pairs-with-sum-lcci" xr:uid="{1332CCA5-BA05-48F0-8973-7AD0B46231A4}"/>
+    <hyperlink ref="C84" r:id="rId94" display="https://leetcode-cn.com/problems/pairs-with-sum-lcci/solution" xr:uid="{E66802F4-7023-4823-8718-F6BE42D17CCF}"/>
+    <hyperlink ref="B71" r:id="rId95" display="https://leetcode-cn.com/problems/operations-lcci" xr:uid="{FB550879-5AAF-419C-AAB4-4A71918A9F34}"/>
+    <hyperlink ref="C71" r:id="rId96" display="https://leetcode-cn.com/problems/operations-lcci/solution" xr:uid="{7FDB7EBD-8629-4656-85B6-82A086333B9A}"/>
+    <hyperlink ref="B6" r:id="rId97" display="https://leetcode-cn.com/problems/one-away-lcci" xr:uid="{0E342DA4-4671-482A-ABDD-CD284A58AB9D}"/>
+    <hyperlink ref="C6" r:id="rId98" display="https://leetcode-cn.com/problems/one-away-lcci/solution" xr:uid="{201AA7B0-7A9E-4AFE-8160-78096D153E00}"/>
+    <hyperlink ref="B90" r:id="rId99" display="https://leetcode-cn.com/problems/number-of-2s-in-range-lcci" xr:uid="{124E27CC-2FCA-4F08-8B00-DC31D2237736}"/>
+    <hyperlink ref="C90" r:id="rId100" display="https://leetcode-cn.com/problems/number-of-2s-in-range-lcci/solution" xr:uid="{5C3C920E-1F28-4F1B-8E0A-82572C317076}"/>
+    <hyperlink ref="B101" r:id="rId101" display="https://leetcode-cn.com/problems/multi-search-lcci" xr:uid="{31258C11-71C1-496B-A4E2-8251562B27B9}"/>
+    <hyperlink ref="C101" r:id="rId102" display="https://leetcode-cn.com/problems/multi-search-lcci/solution" xr:uid="{A2CE0709-89FA-41A9-A98D-E288148D4826}"/>
+    <hyperlink ref="B103" r:id="rId103" display="https://leetcode-cn.com/problems/missing-two-lcci" xr:uid="{A8A31D34-D059-4708-97F1-AE806D88A9B5}"/>
+    <hyperlink ref="C103" r:id="rId104" display="https://leetcode-cn.com/problems/missing-two-lcci/solution" xr:uid="{59A8111E-00C1-490A-AD76-9B7818B71C02}"/>
+    <hyperlink ref="B88" r:id="rId105" display="https://leetcode-cn.com/problems/missing-number-lcci" xr:uid="{F35AB6D4-34C5-4616-9050-C60C3BD02096}"/>
+    <hyperlink ref="C88" r:id="rId106" display="https://leetcode-cn.com/problems/missing-number-lcci/solution" xr:uid="{999D2E46-D035-4862-9EFB-29888DACC44F}"/>
+    <hyperlink ref="B26" r:id="rId107" display="https://leetcode-cn.com/problems/minimum-height-tree-lcci" xr:uid="{3F47950C-FE27-4A0E-A227-74DD2C085D2C}"/>
+    <hyperlink ref="C26" r:id="rId108" display="https://leetcode-cn.com/problems/minimum-height-tree-lcci/solution" xr:uid="{D48033B8-2CB2-4EFC-B9EB-D099324C36F7}"/>
+    <hyperlink ref="B20" r:id="rId109" display="https://leetcode-cn.com/problems/min-stack-lcci" xr:uid="{2AC5EDC8-C55C-4186-9116-4D414B9EAB78}"/>
+    <hyperlink ref="C20" r:id="rId110" display="https://leetcode-cn.com/problems/min-stack-lcci/solution" xr:uid="{7701A427-4016-49F5-A676-440FCA40F2DB}"/>
+    <hyperlink ref="B69" r:id="rId111" display="https://leetcode-cn.com/problems/maximum-lcci" xr:uid="{0AE1097C-D462-4629-987E-321ABD7D04F7}"/>
+    <hyperlink ref="C69" r:id="rId112" display="https://leetcode-cn.com/problems/maximum-lcci/solution" xr:uid="{80AEA6FE-427D-4CDB-BADC-32E09480FF76}"/>
+    <hyperlink ref="B108" r:id="rId113" display="https://leetcode-cn.com/problems/max-submatrix-lcci" xr:uid="{52284D79-4127-4C7A-955D-2377A1872781}"/>
+    <hyperlink ref="C108" r:id="rId114" display="https://leetcode-cn.com/problems/max-submatrix-lcci/solution" xr:uid="{275E8044-0AED-46A0-9BFA-F08EFB9B25A5}"/>
+    <hyperlink ref="B107" r:id="rId115" display="https://leetcode-cn.com/problems/max-black-square-lcci" xr:uid="{AFF6CE30-BAFF-43E5-A970-94BC41A9E71A}"/>
+    <hyperlink ref="C107" r:id="rId116" display="https://leetcode-cn.com/problems/max-black-square-lcci/solution" xr:uid="{555AE32E-6D63-4D20-905F-621FFEF8BBA8}"/>
+    <hyperlink ref="B76" r:id="rId117" display="https://leetcode-cn.com/problems/master-mind-lcci" xr:uid="{962AAB84-D542-4E73-BC54-BA659A2B3590}"/>
+    <hyperlink ref="C76" r:id="rId118" display="https://leetcode-cn.com/problems/master-mind-lcci/solution" xr:uid="{7E93EB5B-B68B-4786-8938-3BB12AB1FBB7}"/>
+    <hyperlink ref="B44" r:id="rId119" display="https://leetcode-cn.com/problems/magic-index-lcci" xr:uid="{4A34B12C-A0B5-4B0C-ACC7-77DE3AE09D92}"/>
+    <hyperlink ref="C44" r:id="rId120" display="https://leetcode-cn.com/problems/magic-index-lcci/solution" xr:uid="{F839F051-9638-4E4F-93FF-68EE5BAC8208}"/>
+    <hyperlink ref="B99" r:id="rId121" display="https://leetcode-cn.com/problems/longest-word-lcci" xr:uid="{0866538F-9015-494F-9AB3-E46EE4FD3331}"/>
+    <hyperlink ref="C99" r:id="rId122" display="https://leetcode-cn.com/problems/longest-word-lcci/solution" xr:uid="{E5CFAB87-9F62-4F30-AC0F-E2802C6DB146}"/>
+    <hyperlink ref="B72" r:id="rId123" display="https://leetcode-cn.com/problems/living-people-lcci" xr:uid="{CC7E3CDE-D0E1-454B-ACF0-070CAFCDE808}"/>
+    <hyperlink ref="C72" r:id="rId124" display="https://leetcode-cn.com/problems/living-people-lcci/solution" xr:uid="{49CE240E-8878-4DEA-84DC-89BE16DDCF0E}"/>
+    <hyperlink ref="B27" r:id="rId125" display="https://leetcode-cn.com/problems/list-of-depth-lcci" xr:uid="{8145DE80-44C9-41C4-9ADB-5975EC82F5DD}"/>
+    <hyperlink ref="C27" r:id="rId126" display="https://leetcode-cn.com/problems/list-of-depth-lcci/solution" xr:uid="{A97C769B-1C13-49F5-8A93-A0887DF563BD}"/>
+    <hyperlink ref="B18" r:id="rId127" display="https://leetcode-cn.com/problems/linked-list-cycle-lcci" xr:uid="{EF90961B-6C10-406B-973B-A370C508ED5F}"/>
+    <hyperlink ref="C18" r:id="rId128" display="https://leetcode-cn.com/problems/linked-list-cycle-lcci/solution" xr:uid="{743275B3-F5EC-4A66-80C2-A6C3607C36B5}"/>
+    <hyperlink ref="B29" r:id="rId129" display="https://leetcode-cn.com/problems/legal-binary-search-tree-lcci" xr:uid="{5EF06695-8DC5-4639-A7F2-8B382B69D010}"/>
+    <hyperlink ref="C29" r:id="rId130" display="https://leetcode-cn.com/problems/legal-binary-search-tree-lcci/solution" xr:uid="{CCBA05E4-6A96-47CE-81CC-2A2DBA9DE6CD}"/>
+    <hyperlink ref="B83" r:id="rId131" display="https://leetcode-cn.com/problems/langtons-ant-lcci" xr:uid="{841E78F5-2F21-4DF8-AFB9-A679E9955F3D}"/>
+    <hyperlink ref="C83" r:id="rId132" display="https://leetcode-cn.com/problems/langtons-ant-lcci/solution" xr:uid="{E996A9B5-3C28-4902-AA31-40D15886BE91}"/>
+    <hyperlink ref="B85" r:id="rId133" display="https://leetcode-cn.com/problems/lru-cache-lcci" xr:uid="{9C99FE9B-07D5-406D-8FE1-04DCEF511C03}"/>
+    <hyperlink ref="C85" r:id="rId134" display="https://leetcode-cn.com/problems/lru-cache-lcci/solution" xr:uid="{69306EB4-1D17-42B4-9B88-7D574AF038F5}"/>
+    <hyperlink ref="B12" r:id="rId135" display="https://leetcode-cn.com/problems/kth-node-from-end-of-list-lcci" xr:uid="{C6500FCC-E9F5-4175-A6CA-734767834879}"/>
+    <hyperlink ref="C12" r:id="rId136" display="https://leetcode-cn.com/problems/kth-node-from-end-of-list-lcci/solution" xr:uid="{D0CF642B-85BB-45CC-B399-43547FA62524}"/>
+    <hyperlink ref="B2" r:id="rId137" display="https://leetcode-cn.com/problems/is-unique-lcci" xr:uid="{C51E2771-697B-419D-AE04-497F1AAE3C41}"/>
+    <hyperlink ref="C2" r:id="rId138" display="https://leetcode-cn.com/problems/is-unique-lcci/solution" xr:uid="{5C0B10D1-F352-42A2-B5A6-E5D13C8DD04B}"/>
+    <hyperlink ref="B17" r:id="rId139" display="https://leetcode-cn.com/problems/intersection-of-two-linked-lists-lcci" xr:uid="{3F39DAB7-64AA-47B5-A143-1FDC7C303473}"/>
+    <hyperlink ref="C17" r:id="rId140" display="https://leetcode-cn.com/problems/intersection-of-two-linked-lists-lcci/solution" xr:uid="{A2E8361E-E09B-4502-964B-310119466108}"/>
+    <hyperlink ref="B65" r:id="rId141" display="https://leetcode-cn.com/problems/intersection-lcci" xr:uid="{01894B63-82F0-47C5-9E1A-602915781C7C}"/>
+    <hyperlink ref="C65" r:id="rId142" display="https://leetcode-cn.com/problems/intersection-lcci/solution" xr:uid="{FBC195B8-3AB1-413D-A1C5-92EC6B58F53F}"/>
+    <hyperlink ref="B35" r:id="rId143" display="https://leetcode-cn.com/problems/insert-into-bits-lcci" xr:uid="{DB85DCF5-0750-40A4-AF09-9FC5AB110619}"/>
+    <hyperlink ref="C35" r:id="rId144" display="https://leetcode-cn.com/problems/insert-into-bits-lcci/solution" xr:uid="{72EC07D1-5E2E-4A27-A8DC-D434AEB73CAD}"/>
+    <hyperlink ref="B22" r:id="rId145" display="https://leetcode-cn.com/problems/implement-queue-using-stacks-lcci" xr:uid="{6E138AB0-C184-4536-83E3-38609310CC41}"/>
+    <hyperlink ref="C22" r:id="rId146" display="https://leetcode-cn.com/problems/implement-queue-using-stacks-lcci/solution" xr:uid="{52E9181A-27BB-425B-8763-E85FE7D78FB4}"/>
+    <hyperlink ref="B47" r:id="rId147" display="https://leetcode-cn.com/problems/hanota-lcci" xr:uid="{78530C2F-D611-45E2-B571-A471D0007DB5}"/>
+    <hyperlink ref="C47" r:id="rId148" display="https://leetcode-cn.com/problems/hanota-lcci/solution" xr:uid="{92DE7CC6-3A12-49C3-BAF4-D69151860F85}"/>
+    <hyperlink ref="B57" r:id="rId149" display="https://leetcode-cn.com/problems/group-anagrams-lcci" xr:uid="{4E5E358A-0C23-4BED-A8E9-A17FCC3FDB90}"/>
+    <hyperlink ref="C57" r:id="rId150" display="https://leetcode-cn.com/problems/group-anagrams-lcci/solution" xr:uid="{85276C71-6532-498C-9E5F-22D7E33EF82C}"/>
+    <hyperlink ref="B93" r:id="rId151" display="https://leetcode-cn.com/problems/get-kth-magic-number-lcci" xr:uid="{2CCF5E72-736C-4B33-84AD-5A83C2A2448E}"/>
+    <hyperlink ref="C93" r:id="rId152" display="https://leetcode-cn.com/problems/get-kth-magic-number-lcci/solution" xr:uid="{B8F17C41-481A-4FEA-A4D7-7874E88BD193}"/>
+    <hyperlink ref="B31" r:id="rId153" display="https://leetcode-cn.com/problems/first-common-ancestor-lcci" xr:uid="{405E20E1-5B8F-4724-B71D-964817C41CC8}"/>
+    <hyperlink ref="C31" r:id="rId154" display="https://leetcode-cn.com/problems/first-common-ancestor-lcci/solution" xr:uid="{EA5262E2-A6EC-4690-9C16-6383B95F8707}"/>
+    <hyperlink ref="B94" r:id="rId155" display="https://leetcode-cn.com/problems/find-majority-element-lcci" xr:uid="{EDD2EA21-7B02-4847-B31E-761A2163D56C}"/>
+    <hyperlink ref="C94" r:id="rId156" display="https://leetcode-cn.com/problems/find-majority-element-lcci/solution" xr:uid="{0BAA3E19-3782-4A05-9B49-5009F1ADA48B}"/>
+    <hyperlink ref="B89" r:id="rId157" display="https://leetcode-cn.com/problems/find-longest-subarray-lcci" xr:uid="{A094AAB6-1FB9-4EC9-8BA2-359BAEE97480}"/>
+    <hyperlink ref="C89" r:id="rId158" display="https://leetcode-cn.com/problems/find-longest-subarray-lcci/solution" xr:uid="{788C96BE-91B7-4ECC-895B-4F14C7D6D11F}"/>
+    <hyperlink ref="B95" r:id="rId159" display="https://leetcode-cn.com/problems/find-closest-lcci" xr:uid="{5997A170-B088-4469-8823-64E371876AC4}"/>
+    <hyperlink ref="C95" r:id="rId160" display="https://leetcode-cn.com/problems/find-closest-lcci/solution" xr:uid="{700B723B-6E50-4E31-A9A3-3AD3BFF32580}"/>
+    <hyperlink ref="B67" r:id="rId161" display="https://leetcode-cn.com/problems/factorial-zeros-lcci" xr:uid="{2A0AD954-315E-4A67-9690-601FC6A7C61F}"/>
+    <hyperlink ref="C67" r:id="rId162" display="https://leetcode-cn.com/problems/factorial-zeros-lcci/solution" xr:uid="{9CD091BA-B3ED-44A9-8015-C5609688061C}"/>
+    <hyperlink ref="B40" r:id="rId163" display="https://leetcode-cn.com/problems/exchange-lcci" xr:uid="{7565A616-4ABD-4532-B0E7-19259F8B733B}"/>
+    <hyperlink ref="C40" r:id="rId164" display="https://leetcode-cn.com/problems/exchange-lcci/solution" xr:uid="{C4D41235-7CB2-425F-B464-B78C07E0562B}"/>
+    <hyperlink ref="B70" r:id="rId165" display="https://leetcode-cn.com/problems/english-int-lcci" xr:uid="{38055980-60D2-42AE-AFD5-68BDB33D38C8}"/>
+    <hyperlink ref="C70" r:id="rId166" display="https://leetcode-cn.com/problems/english-int-lcci/solution" xr:uid="{1B49DAE4-71E0-425D-9A6C-256542FE0EB5}"/>
+    <hyperlink ref="B53" r:id="rId167" display="https://leetcode-cn.com/problems/eight-queens-lcci" xr:uid="{4B693DEC-57D7-4DE0-9B12-9E27199DB2C3}"/>
+    <hyperlink ref="C53" r:id="rId168" display="https://leetcode-cn.com/problems/eight-queens-lcci/solution" xr:uid="{5DCA2A35-0C0B-4D7E-95C3-7FF31A7220E3}"/>
+    <hyperlink ref="B41" r:id="rId169" display="https://leetcode-cn.com/problems/draw-line-lcci" xr:uid="{4E1ED6F1-F72B-4D72-97CD-E6859833C50B}"/>
+    <hyperlink ref="C41" r:id="rId170" display="https://leetcode-cn.com/problems/draw-line-lcci/solution" xr:uid="{C9CA324B-CA87-46E0-838F-4C6BE9B9C72E}"/>
+    <hyperlink ref="B73" r:id="rId171" display="https://leetcode-cn.com/problems/diving-board-lcci" xr:uid="{8BEEAC8A-0191-4EA3-8052-10FE2D9D3764}"/>
+    <hyperlink ref="C73" r:id="rId172" display="https://leetcode-cn.com/problems/diving-board-lcci/solution" xr:uid="{2A22A67D-07D2-471C-A140-01967CC02EDA}"/>
+    <hyperlink ref="B13" r:id="rId173" display="https://leetcode-cn.com/problems/delete-middle-node-lcci" xr:uid="{28FBECAE-7826-42F2-9AE7-0A30498464D4}"/>
+    <hyperlink ref="C13" r:id="rId174" display="https://leetcode-cn.com/problems/delete-middle-node-lcci/solution" xr:uid="{09591A79-728C-4A57-B5B6-EDAAC90E852F}"/>
+    <hyperlink ref="B39" r:id="rId175" display="https://leetcode-cn.com/problems/convert-integer-lcci" xr:uid="{710ACAF7-AE21-4CEF-BAEE-3A97CDCBDE83}"/>
+    <hyperlink ref="C39" r:id="rId176" display="https://leetcode-cn.com/problems/convert-integer-lcci/solution" xr:uid="{D7C9ECE7-9272-4A9E-AE7B-F36EE78F9C6F}"/>
+    <hyperlink ref="B104" r:id="rId177" display="https://leetcode-cn.com/problems/continuous-median-lcci" xr:uid="{3EB28903-92C6-4DAE-92DF-2A1F85C501C2}"/>
+    <hyperlink ref="C104" r:id="rId178" display="https://leetcode-cn.com/problems/continuous-median-lcci/solution" xr:uid="{AEFCA24A-9F09-404C-9011-BF0779EC2B23}"/>
+    <hyperlink ref="B78" r:id="rId179" display="https://leetcode-cn.com/problems/contiguous-sequence-lcci" xr:uid="{3499170B-C6FB-484D-A7B7-1B945F2D1371}"/>
+    <hyperlink ref="C78" r:id="rId180" display="https://leetcode-cn.com/problems/contiguous-sequence-lcci/solution" xr:uid="{52B82C61-3312-4A9C-AE20-6F33A55DC22E}"/>
+    <hyperlink ref="B7" r:id="rId181" display="https://leetcode-cn.com/problems/compress-string-lcci" xr:uid="{8DECF312-A993-4210-AA85-61FA3DA0FCD5}"/>
+    <hyperlink ref="C7" r:id="rId182" display="https://leetcode-cn.com/problems/compress-string-lcci/solution" xr:uid="{D2589AC9-1E6B-4685-A699-DDA27A738891}"/>
+    <hyperlink ref="B51" r:id="rId183" display="https://leetcode-cn.com/problems/color-fill-lcci" xr:uid="{777E5C2B-DAC7-4D33-8852-20E724B6F833}"/>
+    <hyperlink ref="C51" r:id="rId184" display="https://leetcode-cn.com/problems/color-fill-lcci/solution" xr:uid="{8BC767AE-8AF3-4A8F-8D45-128258774158}"/>
+    <hyperlink ref="B52" r:id="rId185" display="https://leetcode-cn.com/problems/coin-lcci" xr:uid="{39E74854-3BFA-4CD2-83E1-AA2387D54EEA}"/>
+    <hyperlink ref="C52" r:id="rId186" display="https://leetcode-cn.com/problems/coin-lcci/solution" xr:uid="{8FBA8392-6B29-4219-B0DA-853A21D9DE70}"/>
+    <hyperlink ref="B38" r:id="rId187" display="https://leetcode-cn.com/problems/closed-number-lcci" xr:uid="{5739B5DD-446A-4C89-8AF3-55B2BAB348B9}"/>
+    <hyperlink ref="C38" r:id="rId188" display="https://leetcode-cn.com/problems/closed-number-lcci/solution" xr:uid="{248E24F1-33F8-42AA-8F4A-FA0783DDB935}"/>
+    <hyperlink ref="B92" r:id="rId189" display="https://leetcode-cn.com/problems/circus-tower-lcci" xr:uid="{B64C679D-C384-486A-9C05-0D6D618DABC1}"/>
+    <hyperlink ref="C92" r:id="rId190" display="https://leetcode-cn.com/problems/circus-tower-lcci/solution" xr:uid="{0B39C9DD-C16C-4581-ACF5-725A82CAC06E}"/>
+    <hyperlink ref="B33" r:id="rId191" display="https://leetcode-cn.com/problems/check-subtree-lcci" xr:uid="{88D6AE45-B7D1-42BD-8723-9121E7E5E62C}"/>
+    <hyperlink ref="C33" r:id="rId192" display="https://leetcode-cn.com/problems/check-subtree-lcci/solution" xr:uid="{F91383C9-DCBA-4C8C-A5CF-54A33EC3EB61}"/>
+    <hyperlink ref="B3" r:id="rId193" display="https://leetcode-cn.com/problems/check-permutation-lcci" xr:uid="{AF29AFC8-5695-4222-A074-4723DBB885FF}"/>
+    <hyperlink ref="C3" r:id="rId194" display="https://leetcode-cn.com/problems/check-permutation-lcci/solution" xr:uid="{088355D1-82B1-4B15-B0AC-6A1A7B0EDDB7}"/>
+    <hyperlink ref="B28" r:id="rId195" display="https://leetcode-cn.com/problems/check-balance-lcci" xr:uid="{E9AFE699-3866-4F6D-97C4-D94F56F9490D}"/>
+    <hyperlink ref="C28" r:id="rId196" display="https://leetcode-cn.com/problems/check-balance-lcci/solution" xr:uid="{93644541-0AEE-42CC-8B0C-8F81BA3BF12A}"/>
+    <hyperlink ref="B86" r:id="rId197" display="https://leetcode-cn.com/problems/calculator-lcci" xr:uid="{7FC574C2-EB4B-4866-B004-AE4643C4EC59}"/>
+    <hyperlink ref="C86" r:id="rId198" display="https://leetcode-cn.com/problems/calculator-lcci/solution" xr:uid="{3427F363-1D98-4A5D-AA4C-6A21DA8A0E43}"/>
+    <hyperlink ref="B50" r:id="rId199" display="https://leetcode-cn.com/problems/bracket-lcci" xr:uid="{BEEE8D28-B2D7-476A-A511-2B2924124DC4}"/>
+    <hyperlink ref="C50" r:id="rId200" display="https://leetcode-cn.com/problems/bracket-lcci/solution" xr:uid="{D66535F8-B92A-4E14-BE01-BCCF7A2A5E45}"/>
+    <hyperlink ref="B55" r:id="rId201" display="https://leetcode-cn.com/problems/boolean-evaluation-lcci" xr:uid="{6FD438B4-476B-4347-9449-EC8DC5AB077D}"/>
+    <hyperlink ref="C55" r:id="rId202" display="https://leetcode-cn.com/problems/boolean-evaluation-lcci/solution" xr:uid="{02D5DD2E-DEDE-41C6-985D-C2EDA6BFA35E}"/>
+    <hyperlink ref="B74" r:id="rId203" display="https://leetcode-cn.com/problems/bisect-squares-lcci" xr:uid="{CAFF47BA-0EC3-4366-A7F2-DEA772312150}"/>
+    <hyperlink ref="C74" r:id="rId204" display="https://leetcode-cn.com/problems/bisect-squares-lcci/solution" xr:uid="{9474D11B-3411-4F84-AB1C-3A0C5BBDE47B}"/>
+    <hyperlink ref="B36" r:id="rId205" display="https://leetcode-cn.com/problems/bianry-number-to-string-lcci" xr:uid="{57748524-D4A6-4EF7-9E4D-2893DC832F35}"/>
+    <hyperlink ref="C36" r:id="rId206" display="https://leetcode-cn.com/problems/bianry-number-to-string-lcci/solution" xr:uid="{48D31FA0-A311-4BBB-90EE-94BFCDCB0566}"/>
+    <hyperlink ref="B96" r:id="rId207" display="https://leetcode-cn.com/problems/binode-lcci" xr:uid="{CE3A1366-04A7-478C-82C4-AD728B5F495D}"/>
+    <hyperlink ref="C96" r:id="rId208" display="https://leetcode-cn.com/problems/binode-lcci/solution" xr:uid="{839F1BF1-145A-4D45-AEF5-7D6216676F13}"/>
+    <hyperlink ref="B75" r:id="rId209" display="https://leetcode-cn.com/problems/best-line-lcci" xr:uid="{FBECB38E-415E-4A25-AECB-686AFB4C877C}"/>
+    <hyperlink ref="C75" r:id="rId210" display="https://leetcode-cn.com/problems/best-line-lcci/solution" xr:uid="{0BCC6822-A6DD-4DC9-8C05-D6F2CFA2490C}"/>
+    <hyperlink ref="B91" r:id="rId211" display="https://leetcode-cn.com/problems/baby-names-lcci" xr:uid="{CDD6CB6A-AB35-4E31-81CE-E45168206AB4}"/>
+    <hyperlink ref="C91" r:id="rId212" display="https://leetcode-cn.com/problems/baby-names-lcci/solution" xr:uid="{B02EE59F-F5A4-459C-9AA6-AECC76312436}"/>
+    <hyperlink ref="B32" r:id="rId213" display="https://leetcode-cn.com/problems/bst-sequences-lcci" xr:uid="{CF3D540D-5EDA-41AF-9B9F-BC19775EAAC6}"/>
+    <hyperlink ref="C32" r:id="rId214" display="https://leetcode-cn.com/problems/bst-sequences-lcci/solution" xr:uid="{480EDF10-BCFC-4EF1-AA81-C26D5CB2027C}"/>
+    <hyperlink ref="B24" r:id="rId215" display="https://leetcode-cn.com/problems/animal-shelter-lcci" xr:uid="{5FADBB5A-7BA7-4576-872A-3525CC65F148}"/>
+    <hyperlink ref="C24" r:id="rId216" display="https://leetcode-cn.com/problems/animal-shelter-lcci/solution" xr:uid="{48FCA2E6-10D9-4DAC-89D3-C2628F746999}"/>
+    <hyperlink ref="B87" r:id="rId217" display="https://leetcode-cn.com/problems/add-without-plus-lcci" xr:uid="{D695B5A7-3477-44EF-A683-67DF4F7B8AE2}"/>
+    <hyperlink ref="C87" r:id="rId218" display="https://leetcode-cn.com/problems/add-without-plus-lcci/solution" xr:uid="{40A7A630-B87E-45BF-BC49-8E251FC0A3F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/coding/training/algorithmic/leetcode.xlsx
+++ b/src/main/java/com/coding/training/algorithmic/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GITHUB\practice\src\main\java\com\coding\training\algorithmic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A92986-737E-4FD4-A93F-E778E9BCA599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAC545-6CAD-4F47-86D1-7FCC20536511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5415" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1769">
   <si>
     <t>面试题 17.08</t>
   </si>
@@ -5282,13 +5282,67 @@
   </si>
   <si>
     <t>24 点游戏   </t>
+  </si>
+  <si>
+    <t>num0001</t>
+  </si>
+  <si>
+    <t>num0002</t>
+  </si>
+  <si>
+    <t>num0003</t>
+  </si>
+  <si>
+    <t>num0004</t>
+  </si>
+  <si>
+    <t>num0005</t>
+  </si>
+  <si>
+    <t>num0006</t>
+  </si>
+  <si>
+    <t>num0007</t>
+  </si>
+  <si>
+    <t>num0008</t>
+  </si>
+  <si>
+    <t>num0009</t>
+  </si>
+  <si>
+    <t>num0010</t>
+  </si>
+  <si>
+    <t>num0011</t>
+  </si>
+  <si>
+    <t>num0012</t>
+  </si>
+  <si>
+    <t>num0013</t>
+  </si>
+  <si>
+    <t>num0014</t>
+  </si>
+  <si>
+    <t>num0015</t>
+  </si>
+  <si>
+    <t>num0016</t>
+  </si>
+  <si>
+    <t>num0017</t>
+  </si>
+  <si>
+    <t>num0018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5302,6 +5356,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -35558,8 +35618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090EEFA-039A-4546-83D4-90823CAA7E61}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35603,6 +35663,9 @@
       <c r="E2" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F2" t="s">
+        <v>1751</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -35620,6 +35683,9 @@
       <c r="E3" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F3" t="s">
+        <v>1752</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -35637,6 +35703,9 @@
       <c r="E4" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F4" t="s">
+        <v>1753</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -35654,6 +35723,9 @@
       <c r="E5" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F5" t="s">
+        <v>1754</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -35671,6 +35743,9 @@
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F6" t="s">
+        <v>1755</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -35688,6 +35763,9 @@
       <c r="E7" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F7" t="s">
+        <v>1756</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -35705,6 +35783,9 @@
       <c r="E8" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F8" t="s">
+        <v>1757</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -35722,6 +35803,9 @@
       <c r="E9" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F9" t="s">
+        <v>1758</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -35739,6 +35823,9 @@
       <c r="E10" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F10" t="s">
+        <v>1759</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -35756,6 +35843,9 @@
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F11" t="s">
+        <v>1760</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -35773,6 +35863,9 @@
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F12" t="s">
+        <v>1761</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -35790,6 +35883,9 @@
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F13" t="s">
+        <v>1762</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -35808,6 +35904,9 @@
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F14" t="s">
+        <v>1763</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -35825,6 +35924,9 @@
       <c r="E15" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F15" t="s">
+        <v>1764</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -35842,8 +35944,11 @@
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1395</v>
       </c>
@@ -35859,8 +35964,11 @@
       <c r="E17" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1182</v>
       </c>
@@ -35876,8 +35984,11 @@
       <c r="E18" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1431</v>
       </c>
@@ -35893,8 +36004,11 @@
       <c r="E19" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -35911,7 +36025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1243</v>
       </c>
@@ -35928,7 +36042,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1399</v>
       </c>
@@ -35945,7 +36059,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1378</v>
       </c>
@@ -35962,7 +36076,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1369</v>
       </c>
@@ -35979,7 +36093,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>397</v>
       </c>
@@ -35996,7 +36110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1393</v>
       </c>
@@ -36013,7 +36127,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1169</v>
       </c>
@@ -36030,7 +36144,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>973</v>
       </c>
@@ -36047,7 +36161,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1185</v>
       </c>
@@ -36064,7 +36178,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>619</v>
       </c>
@@ -36081,7 +36195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>768</v>
       </c>
@@ -36098,7 +36212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1329</v>
       </c>
@@ -36867,6 +36981,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E77">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof" xr:uid="{C874509C-E304-4355-A7AD-C1664C160A4A}"/>
     <hyperlink ref="C28" r:id="rId2" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/solution" xr:uid="{01D8AEE8-BB1B-43B3-A0E5-5E2C202D2E6D}"/>
@@ -37028,7 +37143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B16F7F-4399-4551-9209-1C8459E69A4B}">
   <dimension ref="A2:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/coding/training/algorithmic/leetcode.xlsx
+++ b/src/main/java/com/coding/training/algorithmic/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GITHUB\practice\src\main\java\com\coding\training\algorithmic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAC545-6CAD-4F47-86D1-7FCC20536511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68A491B-7CCE-4A73-9AC5-58D992C0BB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="程序员面试宝典" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="1826">
   <si>
     <t>面试题 17.08</t>
   </si>
@@ -5336,6 +5337,177 @@
   </si>
   <si>
     <t>num0018</t>
+  </si>
+  <si>
+    <t>num0019</t>
+  </si>
+  <si>
+    <t>num0020</t>
+  </si>
+  <si>
+    <t>num0021</t>
+  </si>
+  <si>
+    <t>num0022</t>
+  </si>
+  <si>
+    <t>num0023</t>
+  </si>
+  <si>
+    <t>num0024</t>
+  </si>
+  <si>
+    <t>num0025</t>
+  </si>
+  <si>
+    <t>num0026</t>
+  </si>
+  <si>
+    <t>num0027</t>
+  </si>
+  <si>
+    <t>num0028</t>
+  </si>
+  <si>
+    <t>num0029</t>
+  </si>
+  <si>
+    <t>num0030</t>
+  </si>
+  <si>
+    <t>num0031</t>
+  </si>
+  <si>
+    <t>num0032</t>
+  </si>
+  <si>
+    <t>num0033</t>
+  </si>
+  <si>
+    <t>num0034</t>
+  </si>
+  <si>
+    <t>num0035</t>
+  </si>
+  <si>
+    <t>num0036</t>
+  </si>
+  <si>
+    <t>num0037</t>
+  </si>
+  <si>
+    <t>num0038</t>
+  </si>
+  <si>
+    <t>num0039</t>
+  </si>
+  <si>
+    <t>num0040</t>
+  </si>
+  <si>
+    <t>num0041</t>
+  </si>
+  <si>
+    <t>num0042</t>
+  </si>
+  <si>
+    <t>num0043</t>
+  </si>
+  <si>
+    <t>num0044</t>
+  </si>
+  <si>
+    <t>num0045</t>
+  </si>
+  <si>
+    <t>num0046</t>
+  </si>
+  <si>
+    <t>num0047</t>
+  </si>
+  <si>
+    <t>num0048</t>
+  </si>
+  <si>
+    <t>num0049</t>
+  </si>
+  <si>
+    <t>num0050</t>
+  </si>
+  <si>
+    <t>num0051</t>
+  </si>
+  <si>
+    <t>num0052</t>
+  </si>
+  <si>
+    <t>num0053</t>
+  </si>
+  <si>
+    <t>num0054</t>
+  </si>
+  <si>
+    <t>num0055</t>
+  </si>
+  <si>
+    <t>num0056</t>
+  </si>
+  <si>
+    <t>num0057</t>
+  </si>
+  <si>
+    <t>num0058</t>
+  </si>
+  <si>
+    <t>num0059</t>
+  </si>
+  <si>
+    <t>num0060</t>
+  </si>
+  <si>
+    <t>num0061</t>
+  </si>
+  <si>
+    <t>num0062</t>
+  </si>
+  <si>
+    <t>num0063</t>
+  </si>
+  <si>
+    <t>num0064</t>
+  </si>
+  <si>
+    <t>num0065</t>
+  </si>
+  <si>
+    <t>num0066</t>
+  </si>
+  <si>
+    <t>num0067</t>
+  </si>
+  <si>
+    <t>num0068</t>
+  </si>
+  <si>
+    <t>num0069</t>
+  </si>
+  <si>
+    <t>num0070</t>
+  </si>
+  <si>
+    <t>num0071</t>
+  </si>
+  <si>
+    <t>num0072</t>
+  </si>
+  <si>
+    <t>num0073</t>
+  </si>
+  <si>
+    <t>num0074</t>
+  </si>
+  <si>
+    <t>num0075</t>
   </si>
 </sst>
 </file>
@@ -35619,7 +35791,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36024,6 +36196,9 @@
       <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F20" t="s">
+        <v>1769</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -36041,6 +36216,9 @@
       <c r="E21" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F21" t="s">
+        <v>1770</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -36058,6 +36236,9 @@
       <c r="E22" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F22" t="s">
+        <v>1771</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -36075,6 +36256,9 @@
       <c r="E23" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F23" t="s">
+        <v>1772</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -36092,6 +36276,9 @@
       <c r="E24" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F24" t="s">
+        <v>1773</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -36109,6 +36296,9 @@
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F25" t="s">
+        <v>1774</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -36126,6 +36316,9 @@
       <c r="E26" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F26" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -36143,6 +36336,9 @@
       <c r="E27" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F27" t="s">
+        <v>1776</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -36160,6 +36356,9 @@
       <c r="E28" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F28" t="s">
+        <v>1777</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -36177,6 +36376,9 @@
       <c r="E29" s="3" t="s">
         <v>885</v>
       </c>
+      <c r="F29" t="s">
+        <v>1778</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -36194,6 +36396,9 @@
       <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F30" t="s">
+        <v>1779</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -36211,6 +36416,9 @@
       <c r="E31" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F31" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -36228,8 +36436,11 @@
       <c r="E32" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>667</v>
       </c>
@@ -36245,8 +36456,11 @@
       <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>454</v>
       </c>
@@ -36262,8 +36476,11 @@
       <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>579</v>
       </c>
@@ -36279,8 +36496,11 @@
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>836</v>
       </c>
@@ -36296,8 +36516,11 @@
       <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>654</v>
       </c>
@@ -36313,8 +36536,11 @@
       <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1438</v>
       </c>
@@ -36330,8 +36556,11 @@
       <c r="E38" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>545</v>
       </c>
@@ -36347,8 +36576,11 @@
       <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1275</v>
       </c>
@@ -36364,8 +36596,11 @@
       <c r="E40" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1130</v>
       </c>
@@ -36381,8 +36616,11 @@
       <c r="E41" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1436</v>
       </c>
@@ -36398,8 +36636,11 @@
       <c r="E42" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1155</v>
       </c>
@@ -36415,8 +36656,11 @@
       <c r="E43" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>319</v>
       </c>
@@ -36432,8 +36676,11 @@
       <c r="E44" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -36449,8 +36696,11 @@
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>608</v>
       </c>
@@ -36466,8 +36716,11 @@
       <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>486</v>
       </c>
@@ -36483,8 +36736,11 @@
       <c r="E47" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>795</v>
       </c>
@@ -36500,8 +36756,11 @@
       <c r="E48" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>350</v>
       </c>
@@ -36517,8 +36776,11 @@
       <c r="E49" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>731</v>
       </c>
@@ -36534,8 +36796,11 @@
       <c r="E50" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1171</v>
       </c>
@@ -36551,8 +36816,11 @@
       <c r="E51" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1434</v>
       </c>
@@ -36568,8 +36836,11 @@
       <c r="E52" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1233</v>
       </c>
@@ -36585,8 +36856,11 @@
       <c r="E53" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1062</v>
       </c>
@@ -36602,8 +36876,11 @@
       <c r="E54" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>987</v>
       </c>
@@ -36619,8 +36896,11 @@
       <c r="E55" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1334</v>
       </c>
@@ -36636,8 +36916,11 @@
       <c r="E56" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1401</v>
       </c>
@@ -36653,8 +36936,11 @@
       <c r="E57" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1179</v>
       </c>
@@ -36670,8 +36956,11 @@
       <c r="E58" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>793</v>
       </c>
@@ -36687,8 +36976,11 @@
       <c r="E59" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>864</v>
       </c>
@@ -36704,8 +36996,11 @@
       <c r="E60" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1254</v>
       </c>
@@ -36721,8 +37016,11 @@
       <c r="E61" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1305</v>
       </c>
@@ -36738,8 +37036,11 @@
       <c r="E62" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>951</v>
       </c>
@@ -36755,8 +37056,11 @@
       <c r="E63" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1424</v>
       </c>
@@ -36772,8 +37076,11 @@
       <c r="E64" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>982</v>
       </c>
@@ -36789,8 +37096,11 @@
       <c r="E65" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>467</v>
       </c>
@@ -36806,8 +37116,11 @@
       <c r="E66" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1096</v>
       </c>
@@ -36823,8 +37136,11 @@
       <c r="E67" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>957</v>
       </c>
@@ -36840,8 +37156,11 @@
       <c r="E68" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1124</v>
       </c>
@@ -36857,8 +37176,11 @@
       <c r="E69" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>751</v>
       </c>
@@ -36874,8 +37196,11 @@
       <c r="E70" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>880</v>
       </c>
@@ -36891,8 +37216,11 @@
       <c r="E71" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1090</v>
       </c>
@@ -36908,8 +37236,11 @@
       <c r="E72" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1162</v>
       </c>
@@ -36925,8 +37256,11 @@
       <c r="E73" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -36942,8 +37276,11 @@
       <c r="E74" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1300</v>
       </c>
@@ -36959,8 +37296,11 @@
       <c r="E75" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1267</v>
       </c>
@@ -36975,6 +37315,9 @@
       </c>
       <c r="E76" s="3" t="s">
         <v>885</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1825</v>
       </c>
     </row>
   </sheetData>
